--- a/InputData/indst/BIFUbC/BAU Industrial Fuel Use before CCS.xlsx
+++ b/InputData/indst/BIFUbC/BAU Industrial Fuel Use before CCS.xlsx
@@ -2736,100 +2736,100 @@
       <c r="B2" s="112" t="n"/>
       <c r="C2" s="112" t="n"/>
       <c r="D2" s="112" t="n">
-        <v>237685460274.433</v>
+        <v>318959397357.4354</v>
       </c>
       <c r="E2" s="112" t="n">
-        <v>255272966527.8845</v>
+        <v>342560758539.3268</v>
       </c>
       <c r="F2" s="112" t="n">
-        <v>249875870523.705</v>
+        <v>335318184731.9695</v>
       </c>
       <c r="G2" s="112" t="n">
-        <v>252047132417.1445</v>
+        <v>338231885823.4751</v>
       </c>
       <c r="H2" s="112" t="n">
-        <v>257178212237.469</v>
+        <v>345117482129.5931</v>
       </c>
       <c r="I2" s="112" t="n">
-        <v>262297317098.0855</v>
+        <v>351987008769.8282</v>
       </c>
       <c r="J2" s="112" t="n">
-        <v>268496975183.9907</v>
+        <v>360306571963.2155</v>
       </c>
       <c r="K2" s="112" t="n">
-        <v>274840346891.1738</v>
+        <v>368818990074.9554</v>
       </c>
       <c r="L2" s="112" t="n">
-        <v>283483094224.4557</v>
+        <v>380417030097.064</v>
       </c>
       <c r="M2" s="112" t="n">
-        <v>293957107687.0295</v>
+        <v>394472517622.8003</v>
       </c>
       <c r="N2" s="112" t="n">
-        <v>306266646922.9844</v>
+        <v>410991168834.8459</v>
       </c>
       <c r="O2" s="112" t="n">
-        <v>320244711316.3691</v>
+        <v>429748879087.6721</v>
       </c>
       <c r="P2" s="112" t="n">
-        <v>338163567102.7539</v>
+        <v>453794891142.2633</v>
       </c>
       <c r="Q2" s="112" t="n">
-        <v>357049912183.8983</v>
+        <v>479139214848.1015</v>
       </c>
       <c r="R2" s="112" t="n">
-        <v>377126404644.5496</v>
+        <v>506080643780.7203</v>
       </c>
       <c r="S2" s="112" t="n">
-        <v>399476475085.474</v>
+        <v>536073075755.7455</v>
       </c>
       <c r="T2" s="112" t="n">
-        <v>420868210234.9963</v>
+        <v>564779480193.9622</v>
       </c>
       <c r="U2" s="112" t="n">
-        <v>439887365941.1237</v>
+        <v>590302027661.8188</v>
       </c>
       <c r="V2" s="112" t="n">
-        <v>457915124747.4207</v>
+        <v>614494180929.9344</v>
       </c>
       <c r="W2" s="112" t="n">
-        <v>474679405413.8787</v>
+        <v>636990823561.4631</v>
       </c>
       <c r="X2" s="112" t="n">
-        <v>488794356714.1729</v>
+        <v>655932227698.1458</v>
       </c>
       <c r="Y2" s="112" t="n">
-        <v>505273579741.4099</v>
+        <v>678046340356.1829</v>
       </c>
       <c r="Z2" s="112" t="n">
-        <v>522304736983.4099</v>
+        <v>700901115082.142</v>
       </c>
       <c r="AA2" s="112" t="n">
-        <v>536288612546.8768</v>
+        <v>719666623570.9443</v>
       </c>
       <c r="AB2" s="112" t="n">
-        <v>551777538847.2603</v>
+        <v>740451818394.3041</v>
       </c>
       <c r="AC2" s="112" t="n">
-        <v>569091228972.5475</v>
+        <v>763685735025.2114</v>
       </c>
       <c r="AD2" s="112" t="n">
-        <v>586769118667.47</v>
+        <v>787408385275.3925</v>
       </c>
       <c r="AE2" s="112" t="n">
-        <v>603547715687.407</v>
+        <v>809924239580.5035</v>
       </c>
       <c r="AF2" s="112" t="n">
-        <v>619768609636.8442</v>
+        <v>831691690364.9884</v>
       </c>
       <c r="AG2" s="112" t="n">
-        <v>635608730898.0868</v>
+        <v>852948167415.4617</v>
       </c>
       <c r="AH2" s="112" t="n">
-        <v>650954366720.645</v>
+        <v>873541075153.1855</v>
       </c>
       <c r="AI2" s="112" t="n">
-        <v>666382444992.5475</v>
+        <v>894244615631.8822</v>
       </c>
     </row>
     <row r="3">
@@ -2978,100 +2978,100 @@
       <c r="B4" s="112" t="n"/>
       <c r="C4" s="112" t="n"/>
       <c r="D4" s="112" t="n">
-        <v>863114378395.3215</v>
+        <v>710405742193.5062</v>
       </c>
       <c r="E4" s="112" t="n">
-        <v>914116034119.7706</v>
+        <v>752383804423.6664</v>
       </c>
       <c r="F4" s="112" t="n">
-        <v>862684508350.689</v>
+        <v>710051927964.7689</v>
       </c>
       <c r="G4" s="112" t="n">
-        <v>850749533221.3733</v>
+        <v>700228577691.5806</v>
       </c>
       <c r="H4" s="112" t="n">
-        <v>855688856063.1655</v>
+        <v>704293998680.0251</v>
       </c>
       <c r="I4" s="112" t="n">
-        <v>860748605112.8151</v>
+        <v>708458539173.0385</v>
       </c>
       <c r="J4" s="112" t="n">
-        <v>855904003662.2</v>
+        <v>704471080760.4528</v>
       </c>
       <c r="K4" s="112" t="n">
-        <v>847641160599.4489</v>
+        <v>697670161547.9431</v>
       </c>
       <c r="L4" s="112" t="n">
-        <v>843103503961.6544</v>
+        <v>693935340981.537</v>
       </c>
       <c r="M4" s="112" t="n">
-        <v>839346702488.4448</v>
+        <v>690843220857.4221</v>
       </c>
       <c r="N4" s="112" t="n">
-        <v>836728198442.3381</v>
+        <v>688688002085.8734</v>
       </c>
       <c r="O4" s="112" t="n">
-        <v>834599135822.5873</v>
+        <v>686935629111.4219</v>
       </c>
       <c r="P4" s="112" t="n">
-        <v>825141893043.3685</v>
+        <v>679151632292.6388</v>
       </c>
       <c r="Q4" s="112" t="n">
-        <v>800708854004.6724</v>
+        <v>659041468834.8151</v>
       </c>
       <c r="R4" s="112" t="n">
-        <v>770263374910.5231</v>
+        <v>633982631079.6992</v>
       </c>
       <c r="S4" s="112" t="n">
-        <v>743875975385.9452</v>
+        <v>612263887176.1787</v>
       </c>
       <c r="T4" s="112" t="n">
-        <v>729094615964.6796</v>
+        <v>600097756159.0869</v>
       </c>
       <c r="U4" s="112" t="n">
-        <v>723540491313.5822</v>
+        <v>595526308684.9598</v>
       </c>
       <c r="V4" s="112" t="n">
-        <v>723983030132.207</v>
+        <v>595890550233.6628</v>
       </c>
       <c r="W4" s="112" t="n">
-        <v>726290994523.5265</v>
+        <v>597790172343.3303</v>
       </c>
       <c r="X4" s="112" t="n">
-        <v>729679511323.579</v>
+        <v>600579167466.725</v>
       </c>
       <c r="Y4" s="112" t="n">
-        <v>734624498885.8047</v>
+        <v>604649250930.995</v>
       </c>
       <c r="Z4" s="112" t="n">
-        <v>738463534614.5214</v>
+        <v>607809055812.5183</v>
       </c>
       <c r="AA4" s="112" t="n">
-        <v>742093574494.8647</v>
+        <v>610796841950.645</v>
       </c>
       <c r="AB4" s="112" t="n">
-        <v>746116021016.806</v>
+        <v>614107607219.2832</v>
       </c>
       <c r="AC4" s="112" t="n">
-        <v>749214708922.8947</v>
+        <v>616658052139.2756</v>
       </c>
       <c r="AD4" s="112" t="n">
-        <v>751618492519.4287</v>
+        <v>618636540405.3884</v>
       </c>
       <c r="AE4" s="112" t="n">
-        <v>753798721257.4268</v>
+        <v>620431026806.6564</v>
       </c>
       <c r="AF4" s="112" t="n">
-        <v>753080487401.564</v>
+        <v>619839868243.8811</v>
       </c>
       <c r="AG4" s="112" t="n">
-        <v>752232016872.3997</v>
+        <v>619141515451.8433</v>
       </c>
       <c r="AH4" s="112" t="n">
-        <v>749300963173.8044</v>
+        <v>616729045644.5037</v>
       </c>
       <c r="AI4" s="112" t="n">
-        <v>742899769203.4595</v>
+        <v>611460398675.7415</v>
       </c>
     </row>
     <row r="5" customFormat="1" s="111">
@@ -3083,100 +3083,100 @@
       <c r="B5" s="112" t="n"/>
       <c r="C5" s="112" t="n"/>
       <c r="D5" s="112" t="n">
-        <v>28493796006526.37</v>
+        <v>15181413123473.45</v>
       </c>
       <c r="E5" s="112" t="n">
-        <v>28799055172478.16</v>
+        <v>15344054335159.65</v>
       </c>
       <c r="F5" s="112" t="n">
-        <v>30681458259005.78</v>
+        <v>16346993322823.21</v>
       </c>
       <c r="G5" s="112" t="n">
-        <v>32213877479908.82</v>
+        <v>17163461906565.15</v>
       </c>
       <c r="H5" s="112" t="n">
-        <v>33703851922621.04</v>
+        <v>17957316033724.98</v>
       </c>
       <c r="I5" s="112" t="n">
-        <v>34871783646439.55</v>
+        <v>18579586720131.18</v>
       </c>
       <c r="J5" s="112" t="n">
-        <v>35558276902857.67</v>
+        <v>18945348366272.5</v>
       </c>
       <c r="K5" s="112" t="n">
-        <v>35475255528106.35</v>
+        <v>18901114814944.7</v>
       </c>
       <c r="L5" s="112" t="n">
-        <v>35774296566078.08</v>
+        <v>19060443025804.4</v>
       </c>
       <c r="M5" s="112" t="n">
-        <v>35987351990112.25</v>
+        <v>19173958347164.84</v>
       </c>
       <c r="N5" s="112" t="n">
-        <v>36513266186780.38</v>
+        <v>19454163928944.46</v>
       </c>
       <c r="O5" s="112" t="n">
-        <v>37061895037812.61</v>
+        <v>19746471813687.83</v>
       </c>
       <c r="P5" s="112" t="n">
-        <v>37702828306744.44</v>
+        <v>20087959228632.61</v>
       </c>
       <c r="Q5" s="112" t="n">
-        <v>38253341393524.01</v>
+        <v>20381271028800.08</v>
       </c>
       <c r="R5" s="112" t="n">
-        <v>38689958775140.23</v>
+        <v>20613899522584.73</v>
       </c>
       <c r="S5" s="112" t="n">
-        <v>39139219089734.65</v>
+        <v>20853264134947.27</v>
       </c>
       <c r="T5" s="112" t="n">
-        <v>39735049088877.78</v>
+        <v>21170720656580.22</v>
       </c>
       <c r="U5" s="112" t="n">
-        <v>40287922429133.66</v>
+        <v>21465289993058.12</v>
       </c>
       <c r="V5" s="112" t="n">
-        <v>40807221180357.13</v>
+        <v>21741970884400.99</v>
       </c>
       <c r="W5" s="112" t="n">
-        <v>41335563601703.07</v>
+        <v>22023470217353.04</v>
       </c>
       <c r="X5" s="112" t="n">
-        <v>41950929873402.96</v>
+        <v>22351335609201.42</v>
       </c>
       <c r="Y5" s="112" t="n">
-        <v>42597410883724.18</v>
+        <v>22695778844912.06</v>
       </c>
       <c r="Z5" s="112" t="n">
-        <v>43201944021481.2</v>
+        <v>23017872373939.11</v>
       </c>
       <c r="AA5" s="112" t="n">
-        <v>43871829364015.88</v>
+        <v>23374785371001.67</v>
       </c>
       <c r="AB5" s="112" t="n">
-        <v>44458092021775.48</v>
+        <v>23687144440473.33</v>
       </c>
       <c r="AC5" s="112" t="n">
-        <v>45095976991111.59</v>
+        <v>24027007730100.58</v>
       </c>
       <c r="AD5" s="112" t="n">
-        <v>45717676515478.84</v>
+        <v>24358247460880.02</v>
       </c>
       <c r="AE5" s="112" t="n">
-        <v>46488131400314.37</v>
+        <v>24768743622816.73</v>
       </c>
       <c r="AF5" s="112" t="n">
-        <v>47094950881200.2</v>
+        <v>25092055308932.16</v>
       </c>
       <c r="AG5" s="112" t="n">
-        <v>47786824846008.69</v>
+        <v>25460683781134.58</v>
       </c>
       <c r="AH5" s="112" t="n">
-        <v>48621158395769.98</v>
+        <v>25905214313282.68</v>
       </c>
       <c r="AI5" s="112" t="n">
-        <v>49309769348133.44</v>
+        <v>26272104261774.75</v>
       </c>
     </row>
     <row r="6">
@@ -3430,100 +3430,100 @@
       <c r="B8" s="112" t="n"/>
       <c r="C8" s="112" t="n"/>
       <c r="D8" s="112" t="n">
-        <v>2046071632834.07</v>
+        <v>864059760930.0073</v>
       </c>
       <c r="E8" s="112" t="n">
-        <v>2224712821735.501</v>
+        <v>939500258954.3212</v>
       </c>
       <c r="F8" s="112" t="n">
-        <v>2205148070765.945</v>
+        <v>931238029140.796</v>
       </c>
       <c r="G8" s="112" t="n">
-        <v>2185682108012.798</v>
+        <v>923017517770.205</v>
       </c>
       <c r="H8" s="112" t="n">
-        <v>2177013225482.046</v>
+        <v>919356632957.1562</v>
       </c>
       <c r="I8" s="112" t="n">
-        <v>2170967678398.115</v>
+        <v>916803587460.505</v>
       </c>
       <c r="J8" s="112" t="n">
-        <v>2165275149888.627</v>
+        <v>914399622348.0117</v>
       </c>
       <c r="K8" s="112" t="n">
-        <v>2157348660576.251</v>
+        <v>911052251537.353</v>
       </c>
       <c r="L8" s="112" t="n">
-        <v>2159792517846.792</v>
+        <v>912084296894.4381</v>
       </c>
       <c r="M8" s="112" t="n">
-        <v>2161391022421.908</v>
+        <v>912759348275.2676</v>
       </c>
       <c r="N8" s="112" t="n">
-        <v>2164962635850.538</v>
+        <v>914267647103.0083</v>
       </c>
       <c r="O8" s="112" t="n">
-        <v>2168084539515.523</v>
+        <v>915586032682.0487</v>
       </c>
       <c r="P8" s="112" t="n">
-        <v>2184391045861.061</v>
+        <v>922472299882.2903</v>
       </c>
       <c r="Q8" s="112" t="n">
-        <v>2204885657443.054</v>
+        <v>931127211518.6738</v>
       </c>
       <c r="R8" s="112" t="n">
-        <v>2218618758103.664</v>
+        <v>936926724831.5084</v>
       </c>
       <c r="S8" s="112" t="n">
-        <v>2235195849340.063</v>
+        <v>943927260521.8445</v>
       </c>
       <c r="T8" s="112" t="n">
-        <v>2250699969254.122</v>
+        <v>950474678477.0093</v>
       </c>
       <c r="U8" s="112" t="n">
-        <v>2264664016432.65</v>
+        <v>956371720923.1635</v>
       </c>
       <c r="V8" s="112" t="n">
-        <v>2279231836493.124</v>
+        <v>962523737752.256</v>
       </c>
       <c r="W8" s="112" t="n">
-        <v>2294035309985.842</v>
+        <v>968775271453.1238</v>
       </c>
       <c r="X8" s="112" t="n">
-        <v>2308083340824.582</v>
+        <v>974707780351.283</v>
       </c>
       <c r="Y8" s="112" t="n">
-        <v>2322923500896.513</v>
+        <v>980974806861.0804</v>
       </c>
       <c r="Z8" s="112" t="n">
-        <v>2337375688141.61</v>
+        <v>987077991742.5486</v>
       </c>
       <c r="AA8" s="112" t="n">
-        <v>2351932384840.383</v>
+        <v>993225311155.824</v>
       </c>
       <c r="AB8" s="112" t="n">
-        <v>2367633192230.076</v>
+        <v>999855790588.626</v>
       </c>
       <c r="AC8" s="112" t="n">
-        <v>2384201416688.398</v>
+        <v>1006852581822.501</v>
       </c>
       <c r="AD8" s="112" t="n">
-        <v>2401623336363.42</v>
+        <v>1014209890094.494</v>
       </c>
       <c r="AE8" s="112" t="n">
-        <v>2419252029759.059</v>
+        <v>1021654519283.671</v>
       </c>
       <c r="AF8" s="112" t="n">
-        <v>2437173224259.237</v>
+        <v>1029222672219.722</v>
       </c>
       <c r="AG8" s="112" t="n">
-        <v>2455508308107.258</v>
+        <v>1036965611377.922</v>
       </c>
       <c r="AH8" s="112" t="n">
-        <v>2474416051335.749</v>
+        <v>1044950385630.965</v>
       </c>
       <c r="AI8" s="112" t="n">
-        <v>2493853499077.653</v>
+        <v>1053158855060.599</v>
       </c>
     </row>
     <row r="9">
@@ -4889,100 +4889,100 @@
       <c r="B2" s="112" t="n"/>
       <c r="C2" s="112" t="n"/>
       <c r="D2" s="112" t="n">
-        <v>993509468890.874</v>
+        <v>770138580023.3668</v>
       </c>
       <c r="E2" s="112" t="n">
-        <v>757305338148.2677</v>
+        <v>587040260840.92</v>
       </c>
       <c r="F2" s="112" t="n">
-        <v>736380023946.4771</v>
+        <v>570819588295.2416</v>
       </c>
       <c r="G2" s="112" t="n">
-        <v>730059576604.6891</v>
+        <v>565920168115.2295</v>
       </c>
       <c r="H2" s="112" t="n">
-        <v>727253587158.3578</v>
+        <v>563745049713.8209</v>
       </c>
       <c r="I2" s="112" t="n">
-        <v>723228860135.988</v>
+        <v>560625202695.7046</v>
       </c>
       <c r="J2" s="112" t="n">
-        <v>720513957421.516</v>
+        <v>558520691982.0228</v>
       </c>
       <c r="K2" s="112" t="n">
-        <v>716660800408.2996</v>
+        <v>555533840861.1388</v>
       </c>
       <c r="L2" s="112" t="n">
-        <v>715920199791.0901</v>
+        <v>554959749596.2224</v>
       </c>
       <c r="M2" s="112" t="n">
-        <v>717531699621.9752</v>
+        <v>556208935668.7528</v>
       </c>
       <c r="N2" s="112" t="n">
-        <v>720884209459.4625</v>
+        <v>558807700196.5226</v>
       </c>
       <c r="O2" s="112" t="n">
-        <v>725872241825.3558</v>
+        <v>562674272467.5127</v>
       </c>
       <c r="P2" s="112" t="n">
-        <v>732374846540.6432</v>
+        <v>567714895550.3258</v>
       </c>
       <c r="Q2" s="112" t="n">
-        <v>739313721463.9562</v>
+        <v>573093702142.2407</v>
       </c>
       <c r="R2" s="112" t="n">
-        <v>746375863557.8707</v>
+        <v>578568061727.5624</v>
       </c>
       <c r="S2" s="112" t="n">
-        <v>754492864343.5298</v>
+        <v>584860115960.417</v>
       </c>
       <c r="T2" s="112" t="n">
-        <v>746000189115.9962</v>
+        <v>578276850229.0555</v>
       </c>
       <c r="U2" s="112" t="n">
-        <v>761163740572.9993</v>
+        <v>590031178046.63</v>
       </c>
       <c r="V2" s="112" t="n">
-        <v>775836942594.6704</v>
+        <v>601405401768.9075</v>
       </c>
       <c r="W2" s="112" t="n">
-        <v>789090745914.5272</v>
+        <v>611679350420.9104</v>
       </c>
       <c r="X2" s="112" t="n">
-        <v>799663902596.953</v>
+        <v>619875342637.1278</v>
       </c>
       <c r="Y2" s="112" t="n">
-        <v>813263758264.8221</v>
+        <v>630417540633.7589</v>
       </c>
       <c r="Z2" s="112" t="n">
-        <v>827440303485.1682</v>
+        <v>641406770980.8263</v>
       </c>
       <c r="AA2" s="112" t="n">
-        <v>839217716546.1987</v>
+        <v>650536266426.1957</v>
       </c>
       <c r="AB2" s="112" t="n">
-        <v>852498953690.0829</v>
+        <v>660831480951.2906</v>
       </c>
       <c r="AC2" s="112" t="n">
-        <v>867128502946.6005</v>
+        <v>672171866366.4133</v>
       </c>
       <c r="AD2" s="112" t="n">
-        <v>882116703192.8982</v>
+        <v>683790267213.3381</v>
       </c>
       <c r="AE2" s="112" t="n">
-        <v>896108886679.691</v>
+        <v>694636585904.1655</v>
       </c>
       <c r="AF2" s="112" t="n">
-        <v>909314741145.8223</v>
+        <v>704873366050.7056</v>
       </c>
       <c r="AG2" s="112" t="n">
-        <v>922618922942.5298</v>
+        <v>715186366578.7502</v>
       </c>
       <c r="AH2" s="112" t="n">
-        <v>935111465803.5049</v>
+        <v>724870209079.5902</v>
       </c>
       <c r="AI2" s="112" t="n">
-        <v>947170361162.2118</v>
+        <v>734217901113.7412</v>
       </c>
     </row>
     <row r="3">
@@ -5131,100 +5131,100 @@
       <c r="B4" s="112" t="n"/>
       <c r="C4" s="112" t="n"/>
       <c r="D4" s="112" t="n">
-        <v>48797655152.71045</v>
+        <v>23200703198.67154</v>
       </c>
       <c r="E4" s="112" t="n">
-        <v>22920812101.8725</v>
+        <v>10897633441.27664</v>
       </c>
       <c r="F4" s="112" t="n">
-        <v>28368255866.54411</v>
+        <v>13487604733.54641</v>
       </c>
       <c r="G4" s="112" t="n">
-        <v>34248068713.4071</v>
+        <v>16283144648.25944</v>
       </c>
       <c r="H4" s="112" t="n">
-        <v>37896779131.92413</v>
+        <v>18017913403.29484</v>
       </c>
       <c r="I4" s="112" t="n">
-        <v>41238480314.78954</v>
+        <v>19606715510.27485</v>
       </c>
       <c r="J4" s="112" t="n">
-        <v>44160579514.90138</v>
+        <v>20996019075.10207</v>
       </c>
       <c r="K4" s="112" t="n">
-        <v>46740193929.29185</v>
+        <v>22222489244.78529</v>
       </c>
       <c r="L4" s="112" t="n">
-        <v>47667105386.01441</v>
+        <v>22663186600.66375</v>
       </c>
       <c r="M4" s="112" t="n">
-        <v>48516341782.43346</v>
+        <v>23066953575.06382</v>
       </c>
       <c r="N4" s="112" t="n">
-        <v>49401149362.62589</v>
+        <v>23487632765.3187</v>
       </c>
       <c r="O4" s="112" t="n">
-        <v>50331271379.3997</v>
+        <v>23929856572.63458</v>
       </c>
       <c r="P4" s="112" t="n">
-        <v>49739426265.38648</v>
+        <v>23648465534.74899</v>
       </c>
       <c r="Q4" s="112" t="n">
-        <v>49926476681.76188</v>
+        <v>23737398111.11834</v>
       </c>
       <c r="R4" s="112" t="n">
-        <v>50195432811.33101</v>
+        <v>23865272520.57652</v>
       </c>
       <c r="S4" s="112" t="n">
-        <v>50390489134.89802</v>
+        <v>23958011482.23235</v>
       </c>
       <c r="T4" s="112" t="n">
-        <v>50548774299.41005</v>
+        <v>24033267703.27626</v>
       </c>
       <c r="U4" s="112" t="n">
-        <v>50739841331.33891</v>
+        <v>24124109967.82689</v>
       </c>
       <c r="V4" s="112" t="n">
-        <v>51017693672.3408</v>
+        <v>24256214055.13328</v>
       </c>
       <c r="W4" s="112" t="n">
-        <v>51217515742.13988</v>
+        <v>24351218876.97245</v>
       </c>
       <c r="X4" s="112" t="n">
-        <v>51382577237.65372</v>
+        <v>24429696884.88002</v>
       </c>
       <c r="Y4" s="112" t="n">
-        <v>51579049850.83195</v>
+        <v>24523109217.31179</v>
       </c>
       <c r="Z4" s="112" t="n">
-        <v>51616406197.07355</v>
+        <v>24540870183.46939</v>
       </c>
       <c r="AA4" s="112" t="n">
-        <v>51617339764.18066</v>
+        <v>24541314045.23489</v>
       </c>
       <c r="AB4" s="112" t="n">
-        <v>51590769533.51545</v>
+        <v>24528681306.35319</v>
       </c>
       <c r="AC4" s="112" t="n">
-        <v>51493669446.40546</v>
+        <v>24482515352.38359</v>
       </c>
       <c r="AD4" s="112" t="n">
-        <v>51304993257.06795</v>
+        <v>24392809806.98849</v>
       </c>
       <c r="AE4" s="112" t="n">
-        <v>51137818712.10197</v>
+        <v>24313327155.86539</v>
       </c>
       <c r="AF4" s="112" t="n">
-        <v>50834500482.01279</v>
+        <v>24169115385.66817</v>
       </c>
       <c r="AG4" s="112" t="n">
-        <v>50625078609.96119</v>
+        <v>24069546365.77216</v>
       </c>
       <c r="AH4" s="112" t="n">
-        <v>50399435440.17554</v>
+        <v>23962264977.05335</v>
       </c>
       <c r="AI4" s="112" t="n">
-        <v>50135527403.96358</v>
+        <v>23836790668.89782</v>
       </c>
     </row>
     <row r="5" customFormat="1" s="111">
@@ -5236,100 +5236,100 @@
       <c r="B5" s="112" t="n"/>
       <c r="C5" s="112" t="n"/>
       <c r="D5" s="112" t="n">
-        <v>8367690483759.253</v>
+        <v>2575322240157.118</v>
       </c>
       <c r="E5" s="112" t="n">
-        <v>7101575750547.968</v>
+        <v>2185650390157.626</v>
       </c>
       <c r="F5" s="112" t="n">
-        <v>7978077394355.402</v>
+        <v>2455411106237.25</v>
       </c>
       <c r="G5" s="112" t="n">
-        <v>8719165633385.361</v>
+        <v>2683495668829.162</v>
       </c>
       <c r="H5" s="112" t="n">
-        <v>9079482247580.303</v>
+        <v>2794390233086.211</v>
       </c>
       <c r="I5" s="112" t="n">
-        <v>9410770851056.51</v>
+        <v>2896350852936.908</v>
       </c>
       <c r="J5" s="112" t="n">
-        <v>9713419589465.633</v>
+        <v>2989496987882.18</v>
       </c>
       <c r="K5" s="112" t="n">
-        <v>10200483397360.3</v>
+        <v>3139400507769.932</v>
       </c>
       <c r="L5" s="112" t="n">
-        <v>10515949708951.55</v>
+        <v>3236491504364.287</v>
       </c>
       <c r="M5" s="112" t="n">
-        <v>10920184805980.41</v>
+        <v>3360902850320.618</v>
       </c>
       <c r="N5" s="112" t="n">
-        <v>11204875345578.16</v>
+        <v>3448521994409.592</v>
       </c>
       <c r="O5" s="112" t="n">
-        <v>11524377971641.69</v>
+        <v>3546855246611.855</v>
       </c>
       <c r="P5" s="112" t="n">
-        <v>11733819814091.74</v>
+        <v>3611315115906.494</v>
       </c>
       <c r="Q5" s="112" t="n">
-        <v>11980623635267.78</v>
+        <v>3687273873088.543</v>
       </c>
       <c r="R5" s="112" t="n">
-        <v>12233505536134.49</v>
+        <v>3765103279505.913</v>
       </c>
       <c r="S5" s="112" t="n">
-        <v>12508910472862</v>
+        <v>3849864595663.579</v>
       </c>
       <c r="T5" s="112" t="n">
-        <v>12751101940795.39</v>
+        <v>3924403809913.406</v>
       </c>
       <c r="U5" s="112" t="n">
-        <v>12945139739941.63</v>
+        <v>3984122780224.549</v>
       </c>
       <c r="V5" s="112" t="n">
-        <v>13160171550286.21</v>
+        <v>4050303072695.505</v>
       </c>
       <c r="W5" s="112" t="n">
-        <v>13369716451236.21</v>
+        <v>4114794660281.765</v>
       </c>
       <c r="X5" s="112" t="n">
-        <v>13574630604932.8</v>
+        <v>4177861043815.196</v>
       </c>
       <c r="Y5" s="112" t="n">
-        <v>13788517423133.58</v>
+        <v>4243688942308.575</v>
       </c>
       <c r="Z5" s="112" t="n">
-        <v>13989906411701.82</v>
+        <v>4305670386554.05</v>
       </c>
       <c r="AA5" s="112" t="n">
-        <v>14253829362567.88</v>
+        <v>4386897894475.436</v>
       </c>
       <c r="AB5" s="112" t="n">
-        <v>14492278820201.33</v>
+        <v>4460285431047.05</v>
       </c>
       <c r="AC5" s="112" t="n">
-        <v>14754663419300.45</v>
+        <v>4541039480787.08</v>
       </c>
       <c r="AD5" s="112" t="n">
-        <v>15032183777350.43</v>
+        <v>4626451859694.933</v>
       </c>
       <c r="AE5" s="112" t="n">
-        <v>15323599369439.89</v>
+        <v>4716140771694.385</v>
       </c>
       <c r="AF5" s="112" t="n">
-        <v>15616569405553.8</v>
+        <v>4806308094585.712</v>
       </c>
       <c r="AG5" s="112" t="n">
-        <v>15882847670469.3</v>
+        <v>4888260496988.538</v>
       </c>
       <c r="AH5" s="112" t="n">
-        <v>16178636493661.4</v>
+        <v>4979295357352.336</v>
       </c>
       <c r="AI5" s="112" t="n">
-        <v>16412505872635.84</v>
+        <v>5051273284133.16</v>
       </c>
     </row>
     <row r="6">
@@ -5583,100 +5583,100 @@
       <c r="B8" s="112" t="n"/>
       <c r="C8" s="112" t="n"/>
       <c r="D8" s="112" t="n">
-        <v>7466788332304.977</v>
+        <v>1821465163332.104</v>
       </c>
       <c r="E8" s="112" t="n">
-        <v>7089134638755.583</v>
+        <v>1729339470733.078</v>
       </c>
       <c r="F8" s="112" t="n">
-        <v>7285044461146.29</v>
+        <v>1777130154057.443</v>
       </c>
       <c r="G8" s="112" t="n">
-        <v>7486705382136.602</v>
+        <v>1826323773327.474</v>
       </c>
       <c r="H8" s="112" t="n">
-        <v>7605849304370.899</v>
+        <v>1855388010066.796</v>
       </c>
       <c r="I8" s="112" t="n">
-        <v>7735184244622.012</v>
+        <v>1886938266694.51</v>
       </c>
       <c r="J8" s="112" t="n">
-        <v>7868426265075.935</v>
+        <v>1919441625266.868</v>
       </c>
       <c r="K8" s="112" t="n">
-        <v>7997247646821.098</v>
+        <v>1950866603275.945</v>
       </c>
       <c r="L8" s="112" t="n">
-        <v>8097610507882.692</v>
+        <v>1975349345651.957</v>
       </c>
       <c r="M8" s="112" t="n">
-        <v>8198169647336.337</v>
+        <v>1999879968621.006</v>
       </c>
       <c r="N8" s="112" t="n">
-        <v>8303604153791.804</v>
+        <v>2025599899597.336</v>
       </c>
       <c r="O8" s="112" t="n">
-        <v>8415190259334.858</v>
+        <v>2052820465510.423</v>
       </c>
       <c r="P8" s="112" t="n">
-        <v>8510498441505.969</v>
+        <v>2076070158133.167</v>
       </c>
       <c r="Q8" s="112" t="n">
-        <v>8620088337166.686</v>
+        <v>2102803764111.465</v>
       </c>
       <c r="R8" s="112" t="n">
-        <v>8703232147463.894</v>
+        <v>2123086052461.309</v>
       </c>
       <c r="S8" s="112" t="n">
-        <v>8797436947865.35</v>
+        <v>2146066583650.002</v>
       </c>
       <c r="T8" s="112" t="n">
-        <v>8887392984787.75</v>
+        <v>2168010661906.067</v>
       </c>
       <c r="U8" s="112" t="n">
-        <v>8970743318384.799</v>
+        <v>2188343330014.829</v>
       </c>
       <c r="V8" s="112" t="n">
-        <v>9057023240570.023</v>
+        <v>2209390648562.143</v>
       </c>
       <c r="W8" s="112" t="n">
-        <v>9143006593476.514</v>
+        <v>2230365621331.635</v>
       </c>
       <c r="X8" s="112" t="n">
-        <v>9227292489972.941</v>
+        <v>2250926512761.253</v>
       </c>
       <c r="Y8" s="112" t="n">
-        <v>9313819902088.021</v>
+        <v>2272034204559.481</v>
       </c>
       <c r="Z8" s="112" t="n">
-        <v>9398076038947.473</v>
+        <v>2292587836356.227</v>
       </c>
       <c r="AA8" s="112" t="n">
-        <v>9482179022236.125</v>
+        <v>2313104107525.962</v>
       </c>
       <c r="AB8" s="112" t="n">
-        <v>9569816082676.137</v>
+        <v>2334482489435.85</v>
       </c>
       <c r="AC8" s="112" t="n">
-        <v>9659826009373.656</v>
+        <v>2356439713685.033</v>
       </c>
       <c r="AD8" s="112" t="n">
-        <v>9752774729474.982</v>
+        <v>2379113833816.226</v>
       </c>
       <c r="AE8" s="112" t="n">
-        <v>9846674314831.611</v>
+        <v>2402019910159.444</v>
       </c>
       <c r="AF8" s="112" t="n">
-        <v>9941180039897.727</v>
+        <v>2425073849588.611</v>
       </c>
       <c r="AG8" s="112" t="n">
-        <v>10037202505360.83</v>
+        <v>2448497786086.394</v>
       </c>
       <c r="AH8" s="112" t="n">
-        <v>10134937599578.4</v>
+        <v>2472339505099.92</v>
       </c>
       <c r="AI8" s="112" t="n">
-        <v>10234113637476.68</v>
+        <v>2496532731160.375</v>
       </c>
     </row>
     <row r="9">
@@ -7955,100 +7955,100 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>93230399622.91356</v>
+        <v>68797740579.34317</v>
       </c>
       <c r="E2" t="n">
-        <v>77900288427.0441</v>
+        <v>57485153511.47973</v>
       </c>
       <c r="F2" t="n">
-        <v>86086052278.76424</v>
+        <v>63525694581.69087</v>
       </c>
       <c r="G2" t="n">
-        <v>95039925062.08493</v>
+        <v>70133048185.43901</v>
       </c>
       <c r="H2" t="n">
-        <v>99920743876.24379</v>
+        <v>73734762947.46339</v>
       </c>
       <c r="I2" t="n">
-        <v>104784305024.3875</v>
+        <v>77323742717.09991</v>
       </c>
       <c r="J2" t="n">
-        <v>109720160697.7767</v>
+        <v>80966070965.4865</v>
       </c>
       <c r="K2" t="n">
-        <v>114745527764.1617</v>
+        <v>84674452578.64601</v>
       </c>
       <c r="L2" t="n">
-        <v>117793606926.4716</v>
+        <v>86923729212.89912</v>
       </c>
       <c r="M2" t="n">
-        <v>121074970566.972</v>
+        <v>89345154042.12566</v>
       </c>
       <c r="N2" t="n">
-        <v>124518915292.745</v>
+        <v>91886552735.80991</v>
       </c>
       <c r="O2" t="n">
-        <v>128200509911.0433</v>
+        <v>94603321005.52074</v>
       </c>
       <c r="P2" t="n">
-        <v>129772140668.1006</v>
+        <v>95763078397.40009</v>
       </c>
       <c r="Q2" t="n">
-        <v>131433446011.2128</v>
+        <v>96989009579.5123</v>
       </c>
       <c r="R2" t="n">
-        <v>133136610374.0214</v>
+        <v>98245829892.09721</v>
       </c>
       <c r="S2" t="n">
-        <v>135008883544.4724</v>
+        <v>99627441087.53711</v>
       </c>
       <c r="T2" t="n">
-        <v>136161271332.3297</v>
+        <v>100477825472.85</v>
       </c>
       <c r="U2" t="n">
-        <v>137780595260.9512</v>
+        <v>101672777205.3946</v>
       </c>
       <c r="V2" t="n">
-        <v>139330888525.5122</v>
+        <v>102816788968.3878</v>
       </c>
       <c r="W2" t="n">
-        <v>140724353260.1389</v>
+        <v>103845071864.3859</v>
       </c>
       <c r="X2" t="n">
-        <v>141943323816.1681</v>
+        <v>104744589837.3513</v>
       </c>
       <c r="Y2" t="n">
-        <v>143453349193.3604</v>
+        <v>105858886618.1062</v>
       </c>
       <c r="Z2" t="n">
-        <v>145058760913.6813</v>
+        <v>107043572080.1915</v>
       </c>
       <c r="AA2" t="n">
-        <v>146426237153.6232</v>
+        <v>108052677221.6954</v>
       </c>
       <c r="AB2" t="n">
-        <v>147975224873.7103</v>
+        <v>109195725581.0091</v>
       </c>
       <c r="AC2" t="n">
-        <v>149704948906.9109</v>
+        <v>110472145137.198</v>
       </c>
       <c r="AD2" t="n">
-        <v>151496849495.6838</v>
+        <v>111794446793.6212</v>
       </c>
       <c r="AE2" t="n">
-        <v>153163744201.0752</v>
+        <v>113024502547.7361</v>
       </c>
       <c r="AF2" t="n">
-        <v>154800652181.8304</v>
+        <v>114232430123.5884</v>
       </c>
       <c r="AG2" t="n">
-        <v>156399821767.6352</v>
+        <v>115412509311.8314</v>
       </c>
       <c r="AH2" t="n">
-        <v>157901483500.5412</v>
+        <v>116520634287.7647</v>
       </c>
       <c r="AI2" t="n">
-        <v>159328851593.226</v>
+        <v>117573935573.0638</v>
       </c>
     </row>
     <row r="3">
@@ -8193,100 +8193,100 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>16637390312.72692</v>
+        <v>7530211260.130304</v>
       </c>
       <c r="E4" t="n">
-        <v>13317189207.14782</v>
+        <v>6027462614.989517</v>
       </c>
       <c r="F4" t="n">
-        <v>13798666951.7101</v>
+        <v>6245383158.142944</v>
       </c>
       <c r="G4" t="n">
-        <v>14740970524.722</v>
+        <v>6671877027.829182</v>
       </c>
       <c r="H4" t="n">
-        <v>15494993517.26143</v>
+        <v>7013153653.675614</v>
       </c>
       <c r="I4" t="n">
-        <v>16134302246.10434</v>
+        <v>7302509718.42754</v>
       </c>
       <c r="J4" t="n">
-        <v>16584932020.91824</v>
+        <v>7506468232.393391</v>
       </c>
       <c r="K4" t="n">
-        <v>16984621942.2622</v>
+        <v>7687370975.533491</v>
       </c>
       <c r="L4" t="n">
-        <v>17073389963.01483</v>
+        <v>7727548066.822841</v>
       </c>
       <c r="M4" t="n">
-        <v>17159011410.02371</v>
+        <v>7766300994.551038</v>
       </c>
       <c r="N4" t="n">
-        <v>17252328972.26272</v>
+        <v>7808537243.429718</v>
       </c>
       <c r="O4" t="n">
-        <v>17338960786.98748</v>
+        <v>7847747471.383975</v>
       </c>
       <c r="P4" t="n">
-        <v>17125034187.12099</v>
+        <v>7750922641.234757</v>
       </c>
       <c r="Q4" t="n">
-        <v>17197405383.22729</v>
+        <v>7783678403.141227</v>
       </c>
       <c r="R4" t="n">
-        <v>17299342825.46523</v>
+        <v>7829816076.234219</v>
       </c>
       <c r="S4" t="n">
-        <v>17369993509.68962</v>
+        <v>7861793121.184318</v>
       </c>
       <c r="T4" t="n">
-        <v>17431013946.19919</v>
+        <v>7889411441.694048</v>
       </c>
       <c r="U4" t="n">
-        <v>17507894269.08323</v>
+        <v>7924208069.180811</v>
       </c>
       <c r="V4" t="n">
-        <v>17608295952.39303</v>
+        <v>7969650645.930194</v>
       </c>
       <c r="W4" t="n">
-        <v>17674529886.31656</v>
+        <v>7999628635.606383</v>
       </c>
       <c r="X4" t="n">
-        <v>17732542313.79769</v>
+        <v>8025885508.014537</v>
       </c>
       <c r="Y4" t="n">
-        <v>17795473788.67273</v>
+        <v>8054368779.237556</v>
       </c>
       <c r="Z4" t="n">
-        <v>17804982792.26164</v>
+        <v>8058672627.650797</v>
       </c>
       <c r="AA4" t="n">
-        <v>17806697530.61374</v>
+        <v>8059448731.463017</v>
       </c>
       <c r="AB4" t="n">
-        <v>17793250979.69778</v>
+        <v>8053362718.740229</v>
       </c>
       <c r="AC4" t="n">
-        <v>17752870912.24128</v>
+        <v>8035086388.562817</v>
       </c>
       <c r="AD4" t="n">
-        <v>17685089672.32999</v>
+        <v>8004408076.254723</v>
       </c>
       <c r="AE4" t="n">
-        <v>17616413535.29893</v>
+        <v>7973324726.603548</v>
       </c>
       <c r="AF4" t="n">
-        <v>17505983230.71775</v>
+        <v>7923343118.467526</v>
       </c>
       <c r="AG4" t="n">
-        <v>17427913560.69388</v>
+        <v>7888008183.286089</v>
       </c>
       <c r="AH4" t="n">
-        <v>17344278207.93794</v>
+        <v>7850154177.145113</v>
       </c>
       <c r="AI4" t="n">
-        <v>17248812892.61144</v>
+        <v>7806945838.64304</v>
       </c>
     </row>
     <row r="5" customFormat="1" s="111">
@@ -8296,100 +8296,100 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1044386799865.125</v>
+        <v>305989909725.8091</v>
       </c>
       <c r="E5" t="n">
-        <v>1146429003911.682</v>
+        <v>335886768637.1442</v>
       </c>
       <c r="F5" t="n">
-        <v>918420715977.5441</v>
+        <v>269083707308.9916</v>
       </c>
       <c r="G5" t="n">
-        <v>741074406570.631</v>
+        <v>217123857555.3995</v>
       </c>
       <c r="H5" t="n">
-        <v>628710507311.0823</v>
+        <v>184202894368.8584</v>
       </c>
       <c r="I5" t="n">
-        <v>532382534739.7332</v>
+        <v>155980220896.7466</v>
       </c>
       <c r="J5" t="n">
-        <v>479353982489.6702</v>
+        <v>140443638168.9845</v>
       </c>
       <c r="K5" t="n">
-        <v>522322661553.3996</v>
+        <v>153032826608.9819</v>
       </c>
       <c r="L5" t="n">
-        <v>526142629189.6799</v>
+        <v>154152020716.3105</v>
       </c>
       <c r="M5" t="n">
-        <v>554988575354.8916</v>
+        <v>162603456969.8026</v>
       </c>
       <c r="N5" t="n">
-        <v>537586418802.6368</v>
+        <v>157504882080.5503</v>
       </c>
       <c r="O5" t="n">
-        <v>528092820121.7219</v>
+        <v>154723397860.603</v>
       </c>
       <c r="P5" t="n">
-        <v>510256010584.9126</v>
+        <v>149497476065.4696</v>
       </c>
       <c r="Q5" t="n">
-        <v>514821833506.0903</v>
+        <v>150835194757.1034</v>
       </c>
       <c r="R5" t="n">
-        <v>519965172176.9017</v>
+        <v>152342117035.1081</v>
       </c>
       <c r="S5" t="n">
-        <v>530741947466.0805</v>
+        <v>155499553052.3931</v>
       </c>
       <c r="T5" t="n">
-        <v>525451279982.8268</v>
+        <v>153949465607.972</v>
       </c>
       <c r="U5" t="n">
-        <v>517991635997.2801</v>
+        <v>151763900078.0181</v>
       </c>
       <c r="V5" t="n">
-        <v>520560755118.1405</v>
+        <v>152516614041.8181</v>
       </c>
       <c r="W5" t="n">
-        <v>519902596763.2808</v>
+        <v>152323783362.9789</v>
       </c>
       <c r="X5" t="n">
-        <v>512793182241.9656</v>
+        <v>150240829894.1476</v>
       </c>
       <c r="Y5" t="n">
-        <v>503379058903.8978</v>
+        <v>147482630776.0287</v>
       </c>
       <c r="Z5" t="n">
-        <v>495765209407.9804</v>
+        <v>145251885308.7148</v>
       </c>
       <c r="AA5" t="n">
-        <v>494454678259.618</v>
+        <v>144867919035.0774</v>
       </c>
       <c r="AB5" t="n">
-        <v>492810893702.0576</v>
+        <v>144386314433.7539</v>
       </c>
       <c r="AC5" t="n">
-        <v>493055054541.4167</v>
+        <v>144457849954.1221</v>
       </c>
       <c r="AD5" t="n">
-        <v>497636559378.9033</v>
+        <v>145800163215.6569</v>
       </c>
       <c r="AE5" t="n">
-        <v>495693981027.5938</v>
+        <v>145231016445.1028</v>
       </c>
       <c r="AF5" t="n">
-        <v>505545041124.436</v>
+        <v>148117231581.2244</v>
       </c>
       <c r="AG5" t="n">
-        <v>507305577295.1633</v>
+        <v>148633042681.1152</v>
       </c>
       <c r="AH5" t="n">
-        <v>507652558724.9489</v>
+        <v>148734703116.1096</v>
       </c>
       <c r="AI5" t="n">
-        <v>506071755585.315</v>
+        <v>148271551140.1814</v>
       </c>
     </row>
     <row r="6">
@@ -8639,100 +8639,100 @@
       <c r="B8" s="123" t="n"/>
       <c r="C8" s="123" t="n"/>
       <c r="D8" s="123" t="n">
-        <v>2891614425.314872</v>
+        <v>671501786.6241549</v>
       </c>
       <c r="E8" s="123" t="n">
-        <v>2352230558.893672</v>
+        <v>546243997.4779965</v>
       </c>
       <c r="F8" s="123" t="n">
-        <v>2525366120.954798</v>
+        <v>586450201.4014547</v>
       </c>
       <c r="G8" s="123" t="n">
-        <v>2683007830.356227</v>
+        <v>623058363.4658068</v>
       </c>
       <c r="H8" s="123" t="n">
-        <v>2711654974.954688</v>
+        <v>629710913.2010478</v>
       </c>
       <c r="I8" s="123" t="n">
-        <v>2731961811.632078</v>
+        <v>634426644.65894</v>
       </c>
       <c r="J8" s="123" t="n">
-        <v>2743763512.168613</v>
+        <v>637167280.7984294</v>
       </c>
       <c r="K8" s="123" t="n">
-        <v>2702622388.510524</v>
+        <v>627613331.351271</v>
       </c>
       <c r="L8" s="123" t="n">
-        <v>2602505727.813715</v>
+        <v>604363856.6148769</v>
       </c>
       <c r="M8" s="123" t="n">
-        <v>2497806842.606912</v>
+        <v>580050280.1371725</v>
       </c>
       <c r="N8" s="123" t="n">
-        <v>2385295099.782345</v>
+        <v>553922371.9134933</v>
       </c>
       <c r="O8" s="123" t="n">
-        <v>2264937533.69606</v>
+        <v>525972476.5356285</v>
       </c>
       <c r="P8" s="123" t="n">
-        <v>2102350977.701111</v>
+        <v>488216003.2396467</v>
       </c>
       <c r="Q8" s="123" t="n">
-        <v>1940753391.024866</v>
+        <v>450689192.1899909</v>
       </c>
       <c r="R8" s="123" t="n">
-        <v>1778859113.55301</v>
+        <v>413093482.4664374</v>
       </c>
       <c r="S8" s="123" t="n">
-        <v>1614195721.988782</v>
+        <v>374854718.4531713</v>
       </c>
       <c r="T8" s="123" t="n">
-        <v>1448905983.189375</v>
+        <v>336470501.6838987</v>
       </c>
       <c r="U8" s="123" t="n">
-        <v>1400380555.284962</v>
+        <v>325201740.7975067</v>
       </c>
       <c r="V8" s="123" t="n">
-        <v>1400380555.284962</v>
+        <v>325201740.7975067</v>
       </c>
       <c r="W8" s="123" t="n">
-        <v>1400380555.284962</v>
+        <v>325201740.7975067</v>
       </c>
       <c r="X8" s="123" t="n">
-        <v>1400380555.284962</v>
+        <v>325201740.7975067</v>
       </c>
       <c r="Y8" s="123" t="n">
-        <v>1400380555.284962</v>
+        <v>325201740.7975067</v>
       </c>
       <c r="Z8" s="123" t="n">
-        <v>1400380555.284962</v>
+        <v>325201740.7975067</v>
       </c>
       <c r="AA8" s="123" t="n">
-        <v>1400380555.284962</v>
+        <v>325201740.7975067</v>
       </c>
       <c r="AB8" s="123" t="n">
-        <v>1400380555.284962</v>
+        <v>325201740.7975067</v>
       </c>
       <c r="AC8" s="123" t="n">
-        <v>1400380555.284962</v>
+        <v>325201740.7975067</v>
       </c>
       <c r="AD8" s="123" t="n">
-        <v>1400380555.284962</v>
+        <v>325201740.7975067</v>
       </c>
       <c r="AE8" s="123" t="n">
-        <v>1400380555.284962</v>
+        <v>325201740.7975067</v>
       </c>
       <c r="AF8" s="123" t="n">
-        <v>1400380555.284962</v>
+        <v>325201740.7975067</v>
       </c>
       <c r="AG8" s="123" t="n">
-        <v>1400380555.284962</v>
+        <v>325201740.7975067</v>
       </c>
       <c r="AH8" s="123" t="n">
-        <v>1400380555.284962</v>
+        <v>325201740.7975067</v>
       </c>
       <c r="AI8" s="123" t="n">
-        <v>1400380555.284962</v>
+        <v>325201740.7975067</v>
       </c>
     </row>
     <row r="9">
@@ -9012,100 +9012,100 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1195641878.253801</v>
+        <v>279651861.9316159</v>
       </c>
       <c r="E2" t="n">
-        <v>1179840429.792348</v>
+        <v>275956019.0844957</v>
       </c>
       <c r="F2" t="n">
-        <v>915983784.5857821</v>
+        <v>214241885.9003928</v>
       </c>
       <c r="G2" t="n">
-        <v>887280933.1028057</v>
+        <v>207528499.5545717</v>
       </c>
       <c r="H2" t="n">
-        <v>871498480.5721816</v>
+        <v>203837099.7162837</v>
       </c>
       <c r="I2" t="n">
-        <v>850055240.6544453</v>
+        <v>198821683.2459279</v>
       </c>
       <c r="J2" t="n">
-        <v>825465008.1959987</v>
+        <v>193070208.3123306</v>
       </c>
       <c r="K2" t="n">
-        <v>802603405.4430127</v>
+        <v>187723047.1824857</v>
       </c>
       <c r="L2" t="n">
-        <v>790300374.2426106</v>
+        <v>184845458.4620069</v>
       </c>
       <c r="M2" t="n">
-        <v>782242933.5825427</v>
+        <v>182960882.2155791</v>
       </c>
       <c r="N2" t="n">
-        <v>778608378.8172154</v>
+        <v>182110786.5256384</v>
       </c>
       <c r="O2" t="n">
-        <v>782258763.5249002</v>
+        <v>182964584.7229395</v>
       </c>
       <c r="P2" t="n">
-        <v>786922264.5434779</v>
+        <v>184055343.3913041</v>
       </c>
       <c r="Q2" t="n">
-        <v>789106796.5888401</v>
+        <v>184566289.4070351</v>
       </c>
       <c r="R2" t="n">
-        <v>786700645.3504702</v>
+        <v>184003508.288259</v>
       </c>
       <c r="S2" t="n">
-        <v>786517018.0191209</v>
+        <v>183960559.2028787</v>
       </c>
       <c r="T2" t="n">
-        <v>784452793.5356773</v>
+        <v>183477752.2430866</v>
       </c>
       <c r="U2" t="n">
-        <v>779833616.3557012</v>
+        <v>182397360.5953309</v>
       </c>
       <c r="V2" t="n">
-        <v>774394448.1615965</v>
+        <v>181125179.0663081</v>
       </c>
       <c r="W2" t="n">
-        <v>769860752.670352</v>
+        <v>180064780.9582984</v>
       </c>
       <c r="X2" t="n">
-        <v>762341530.0504459</v>
+        <v>178306089.9621232</v>
       </c>
       <c r="Y2" t="n">
-        <v>757548223.5045353</v>
+        <v>177184970.7334034</v>
       </c>
       <c r="Z2" t="n">
-        <v>753308964.941144</v>
+        <v>176193439.2622966</v>
       </c>
       <c r="AA2" t="n">
-        <v>744114934.4197936</v>
+        <v>174043022.9873942</v>
       </c>
       <c r="AB2" t="n">
-        <v>738682098.2026321</v>
+        <v>172772322.4613156</v>
       </c>
       <c r="AC2" t="n">
-        <v>735721898.9817426</v>
+        <v>172079953.5849266</v>
       </c>
       <c r="AD2" t="n">
-        <v>733483545.132364</v>
+        <v>171556419.0441705</v>
       </c>
       <c r="AE2" t="n">
-        <v>730782956.966141</v>
+        <v>170924771.2884915</v>
       </c>
       <c r="AF2" t="n">
-        <v>725945326.5816289</v>
+        <v>169793285.0391627</v>
       </c>
       <c r="AG2" t="n">
-        <v>721205841.8397344</v>
+        <v>168684754.3354682</v>
       </c>
       <c r="AH2" t="n">
-        <v>718612897.2815437</v>
+        <v>168078283.6298398</v>
       </c>
       <c r="AI2" t="n">
-        <v>716839943.7374816</v>
+        <v>167663602.8054785</v>
       </c>
     </row>
     <row r="3" customFormat="1" s="121">
@@ -9218,100 +9218,100 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>88422702.46961771</v>
+        <v>12684860.82678907</v>
       </c>
       <c r="E4" t="n">
-        <v>86418655.26531588</v>
+        <v>12397366.10917829</v>
       </c>
       <c r="F4" t="n">
-        <v>62076179.81167697</v>
+        <v>8905266.176866941</v>
       </c>
       <c r="G4" t="n">
-        <v>57478923.30299352</v>
+        <v>8245757.279615841</v>
       </c>
       <c r="H4" t="n">
-        <v>56150956.40973382</v>
+        <v>8055251.054934789</v>
       </c>
       <c r="I4" t="n">
-        <v>54603453.82899193</v>
+        <v>7833250.88622752</v>
       </c>
       <c r="J4" t="n">
-        <v>52302809.43058149</v>
+        <v>7503207.20750377</v>
       </c>
       <c r="K4" t="n">
-        <v>50129406.12450768</v>
+        <v>7191417.161644196</v>
       </c>
       <c r="L4" t="n">
-        <v>48119086.47199208</v>
+        <v>6903022.617061243</v>
       </c>
       <c r="M4" t="n">
-        <v>46171491.30161425</v>
+        <v>6623626.342200067</v>
       </c>
       <c r="N4" t="n">
-        <v>44596658.76794089</v>
+        <v>6397705.498828308</v>
       </c>
       <c r="O4" t="n">
-        <v>43842172.85422654</v>
+        <v>6289469.168746361</v>
       </c>
       <c r="P4" t="n">
-        <v>43402653.44724686</v>
+        <v>6226417.007338766</v>
       </c>
       <c r="Q4" t="n">
-        <v>43013313.6259774</v>
+        <v>6170563.461708593</v>
       </c>
       <c r="R4" t="n">
-        <v>42468954.72742459</v>
+        <v>6092471.3351946</v>
       </c>
       <c r="S4" t="n">
-        <v>41909362.74035262</v>
+        <v>6012193.914605317</v>
       </c>
       <c r="T4" t="n">
-        <v>41314376.22407431</v>
+        <v>5926838.898958746</v>
       </c>
       <c r="U4" t="n">
-        <v>40600661.22374952</v>
+        <v>5824451.444195956</v>
       </c>
       <c r="V4" t="n">
-        <v>39888738.3514858</v>
+        <v>5722321.082853787</v>
       </c>
       <c r="W4" t="n">
-        <v>39277174.65064252</v>
+        <v>5634587.95306646</v>
       </c>
       <c r="X4" t="n">
-        <v>38654410.1494175</v>
+        <v>5545247.989400246</v>
       </c>
       <c r="Y4" t="n">
-        <v>38082721.29793323</v>
+        <v>5463235.188221763</v>
       </c>
       <c r="Z4" t="n">
-        <v>37549115.16774689</v>
+        <v>5386685.622231503</v>
       </c>
       <c r="AA4" t="n">
-        <v>36854665.5440787</v>
+        <v>5287061.921740401</v>
       </c>
       <c r="AB4" t="n">
-        <v>36257886.89973933</v>
+        <v>5201449.812673208</v>
       </c>
       <c r="AC4" t="n">
-        <v>35687094.11228559</v>
+        <v>5119565.558205036</v>
       </c>
       <c r="AD4" t="n">
-        <v>35119437.54893875</v>
+        <v>5038131.217222954</v>
       </c>
       <c r="AE4" t="n">
-        <v>34560741.62589731</v>
+        <v>4957982.343343983</v>
       </c>
       <c r="AF4" t="n">
-        <v>33871668.38641235</v>
+        <v>4859129.923114748</v>
       </c>
       <c r="AG4" t="n">
-        <v>33225158.18837802</v>
+        <v>4766383.471625289</v>
       </c>
       <c r="AH4" t="n">
-        <v>32620314.96776379</v>
+        <v>4679614.442165296</v>
       </c>
       <c r="AI4" t="n">
-        <v>31947370.88082855</v>
+        <v>4583075.86272166</v>
       </c>
     </row>
     <row r="5" customFormat="1" s="111">
@@ -9321,100 +9321,100 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5812837122173.059</v>
+        <v>539801208778.5388</v>
       </c>
       <c r="E5" t="n">
-        <v>6488623072191.166</v>
+        <v>602557151363.5868</v>
       </c>
       <c r="F5" t="n">
-        <v>6629156707298.475</v>
+        <v>615607616138.4552</v>
       </c>
       <c r="G5" t="n">
-        <v>6819034523536.344</v>
+        <v>633240361142.5187</v>
       </c>
       <c r="H5" t="n">
-        <v>6998954527215.29</v>
+        <v>649948387434.6826</v>
       </c>
       <c r="I5" t="n">
-        <v>7132261063372.321</v>
+        <v>662327717500.7458</v>
       </c>
       <c r="J5" t="n">
-        <v>7226971505067.255</v>
+        <v>671122873779.228</v>
       </c>
       <c r="K5" t="n">
-        <v>7305101910167.952</v>
+        <v>678378347522.8218</v>
       </c>
       <c r="L5" t="n">
-        <v>7377652727374.263</v>
+        <v>685115680429.751</v>
       </c>
       <c r="M5" t="n">
-        <v>7460762959330.973</v>
+        <v>692833599017.3832</v>
       </c>
       <c r="N5" t="n">
-        <v>7542450196545.504</v>
+        <v>700419373134.8074</v>
       </c>
       <c r="O5" t="n">
-        <v>7638744043692.839</v>
+        <v>709361570205.8024</v>
       </c>
       <c r="P5" t="n">
-        <v>7718701914350.6</v>
+        <v>716786749051.392</v>
       </c>
       <c r="Q5" t="n">
-        <v>7791821202838.276</v>
+        <v>723576872270.2444</v>
       </c>
       <c r="R5" t="n">
-        <v>7864160559180.152</v>
+        <v>730294568151.7708</v>
       </c>
       <c r="S5" t="n">
-        <v>7940414992708.407</v>
+        <v>737375832348.2614</v>
       </c>
       <c r="T5" t="n">
-        <v>8022022680294.015</v>
+        <v>744954219197.6531</v>
       </c>
       <c r="U5" t="n">
-        <v>8084811942016.413</v>
+        <v>750785058538.8718</v>
       </c>
       <c r="V5" t="n">
-        <v>8147991169811.714</v>
+        <v>756652111548.7534</v>
       </c>
       <c r="W5" t="n">
-        <v>8210647106450.552</v>
+        <v>762470569837.527</v>
       </c>
       <c r="X5" t="n">
-        <v>8280557706169.223</v>
+        <v>768962722540.4847</v>
       </c>
       <c r="Y5" t="n">
-        <v>8354313224310.744</v>
+        <v>775811928360.3093</v>
       </c>
       <c r="Z5" t="n">
-        <v>8421846170727.408</v>
+        <v>782083283525.0769</v>
       </c>
       <c r="AA5" t="n">
-        <v>8508900156568.505</v>
+        <v>790167433450.2079</v>
       </c>
       <c r="AB5" t="n">
-        <v>8578867885200.348</v>
+        <v>796664891351.9419</v>
       </c>
       <c r="AC5" t="n">
-        <v>8658705781595.978</v>
+        <v>804078928950.9495</v>
       </c>
       <c r="AD5" t="n">
-        <v>8738828536867.543</v>
+        <v>811519419581.8118</v>
       </c>
       <c r="AE5" t="n">
-        <v>8833071841591.078</v>
+        <v>820271195821.1622</v>
       </c>
       <c r="AF5" t="n">
-        <v>8910898405231.98</v>
+        <v>827498453741.0837</v>
       </c>
       <c r="AG5" t="n">
-        <v>8988643010976.318</v>
+        <v>834718100752.4757</v>
       </c>
       <c r="AH5" t="n">
-        <v>9083922658444.715</v>
+        <v>843566115550.4899</v>
       </c>
       <c r="AI5" t="n">
-        <v>9145260542129.938</v>
+        <v>849262174645.437</v>
       </c>
     </row>
     <row r="6" customFormat="1" s="121">
@@ -18736,100 +18736,100 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>730543453331090.1</v>
+        <v>315808257206236.7</v>
       </c>
       <c r="F105" t="n">
-        <v>735271549542886</v>
+        <v>317852176452576.1</v>
       </c>
       <c r="G105" t="n">
-        <v>733600007749461.5</v>
+        <v>317129581926238.5</v>
       </c>
       <c r="H105" t="n">
-        <v>731165873510316.5</v>
+        <v>316077324612364.6</v>
       </c>
       <c r="I105" t="n">
-        <v>728152112159874.6</v>
+        <v>314774499003047.6</v>
       </c>
       <c r="J105" t="n">
-        <v>722881899995518.4</v>
+        <v>312496227243656.2</v>
       </c>
       <c r="K105" t="n">
-        <v>718370227612011.1</v>
+        <v>310545866336274.1</v>
       </c>
       <c r="L105" t="n">
-        <v>715554374597270.8</v>
+        <v>309328594962368.5</v>
       </c>
       <c r="M105" t="n">
-        <v>711149684883586.8</v>
+        <v>307424481831698.4</v>
       </c>
       <c r="N105" t="n">
-        <v>709869388509246.2</v>
+        <v>306871019659333.1</v>
       </c>
       <c r="O105" t="n">
-        <v>707857134762501.2</v>
+        <v>306001138003534.8</v>
       </c>
       <c r="P105" t="n">
-        <v>707637464960927.1</v>
+        <v>305906176455553.4</v>
       </c>
       <c r="Q105" t="n">
-        <v>706711651917692.1</v>
+        <v>305505954672236.2</v>
       </c>
       <c r="R105" t="n">
-        <v>705673862399579.2</v>
+        <v>305057326329092.9</v>
       </c>
       <c r="S105" t="n">
-        <v>703955859012204.5</v>
+        <v>304314646816782.8</v>
       </c>
       <c r="T105" t="n">
-        <v>704578279191430.9</v>
+        <v>304583714222910.7</v>
       </c>
       <c r="U105" t="n">
-        <v>704327916695713.6</v>
+        <v>304475484461790.1</v>
       </c>
       <c r="V105" t="n">
-        <v>703357985305515.6</v>
+        <v>304056190659961.6</v>
       </c>
       <c r="W105" t="n">
-        <v>703626824879934.9</v>
+        <v>304172407918604.2</v>
       </c>
       <c r="X105" t="n">
-        <v>704115891257261.4</v>
+        <v>304383827512575.5</v>
       </c>
       <c r="Y105" t="n">
-        <v>704982431675887</v>
+        <v>304758426200931.5</v>
       </c>
       <c r="Z105" t="n">
-        <v>705812574938441.8</v>
+        <v>305117290681591.1</v>
       </c>
       <c r="AA105" t="n">
-        <v>708072329346468.9</v>
+        <v>306094164949725.5</v>
       </c>
       <c r="AB105" t="n">
-        <v>710573130883092.5</v>
+        <v>307175242018171.8</v>
       </c>
       <c r="AC105" t="n">
-        <v>713458820340826.9</v>
+        <v>308422703143625.8</v>
       </c>
       <c r="AD105" t="n">
-        <v>716752830189543.6</v>
+        <v>309846678000699.8</v>
       </c>
       <c r="AE105" t="n">
-        <v>720905620852109</v>
+        <v>311641897129291</v>
       </c>
       <c r="AF105" t="n">
-        <v>724695361887205.9</v>
+        <v>313280172725492.2</v>
       </c>
       <c r="AG105" t="n">
-        <v>728982466698797</v>
+        <v>315133454816838.9</v>
       </c>
       <c r="AH105" t="n">
-        <v>733352430260409.1</v>
+        <v>317022556101854.5</v>
       </c>
       <c r="AI105" t="n">
-        <v>737866503511731.1</v>
+        <v>318973954885733.8</v>
       </c>
       <c r="AJ105" t="n">
-        <v>742610656727471.9</v>
+        <v>321024815450086.1</v>
       </c>
     </row>
     <row r="106" customFormat="1" s="111">
@@ -18840,100 +18840,100 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>17141760895882.94</v>
+        <v>18803511314374.5</v>
       </c>
       <c r="F106" t="n">
-        <v>17367047947995.72</v>
+        <v>19050638062852.38</v>
       </c>
       <c r="G106" t="n">
-        <v>16802097600508.14</v>
+        <v>18430920502004</v>
       </c>
       <c r="H106" t="n">
-        <v>16928873905408.65</v>
+        <v>18569986709849.89</v>
       </c>
       <c r="I106" t="n">
-        <v>16881188395623.76</v>
+        <v>18517678488528.99</v>
       </c>
       <c r="J106" t="n">
-        <v>17008460047408.49</v>
+        <v>18657288062998.55</v>
       </c>
       <c r="K106" t="n">
-        <v>16717617363706.53</v>
+        <v>18338250612475.81</v>
       </c>
       <c r="L106" t="n">
-        <v>17019243763158.25</v>
+        <v>18669117169841.38</v>
       </c>
       <c r="M106" t="n">
-        <v>16650729493996.97</v>
+        <v>18264878522961.95</v>
       </c>
       <c r="N106" t="n">
-        <v>16773218263254.81</v>
+        <v>18399241554427.22</v>
       </c>
       <c r="O106" t="n">
-        <v>16733850683682.54</v>
+        <v>18356057617117.46</v>
       </c>
       <c r="P106" t="n">
-        <v>15870160815005.17</v>
+        <v>17408640235879.44</v>
       </c>
       <c r="Q106" t="n">
-        <v>15710708016543.69</v>
+        <v>17233729821588.26</v>
       </c>
       <c r="R106" t="n">
-        <v>15955874806293.07</v>
+        <v>17502663482077.52</v>
       </c>
       <c r="S106" t="n">
-        <v>15750311256199.29</v>
+        <v>17277172264256.38</v>
       </c>
       <c r="T106" t="n">
-        <v>16306847758096.9</v>
+        <v>17887660327522.25</v>
       </c>
       <c r="U106" t="n">
-        <v>16429134570008.82</v>
+        <v>18021801823565.21</v>
       </c>
       <c r="V106" t="n">
-        <v>16168129971819.49</v>
+        <v>17735495011507.44</v>
       </c>
       <c r="W106" t="n">
-        <v>17135909269364.52</v>
+        <v>18797092421583.09</v>
       </c>
       <c r="X106" t="n">
-        <v>17227663608983.19</v>
+        <v>18897741577386.97</v>
       </c>
       <c r="Y106" t="n">
-        <v>17284106198352.57</v>
+        <v>18959655803951.33</v>
       </c>
       <c r="Z106" t="n">
-        <v>17494400916645.88</v>
+        <v>19190336837177.68</v>
       </c>
       <c r="AA106" t="n">
-        <v>17770972980461.71</v>
+        <v>19493720250514.76</v>
       </c>
       <c r="AB106" t="n">
-        <v>17922516742215.91</v>
+        <v>19659954913107.23</v>
       </c>
       <c r="AC106" t="n">
-        <v>18086878425483.91</v>
+        <v>19840250087550.01</v>
       </c>
       <c r="AD106" t="n">
-        <v>18316008873789.73</v>
+        <v>20091592817352.11</v>
       </c>
       <c r="AE106" t="n">
-        <v>18699002422431.98</v>
+        <v>20511714388815.44</v>
       </c>
       <c r="AF106" t="n">
-        <v>18567375852058.33</v>
+        <v>20367327722805.66</v>
       </c>
       <c r="AG106" t="n">
-        <v>19398097200614.79</v>
+        <v>21278580561504.73</v>
       </c>
       <c r="AH106" t="n">
-        <v>19789384281030.75</v>
+        <v>21707799653315.61</v>
       </c>
       <c r="AI106" t="n">
-        <v>20077246412685.93</v>
+        <v>22023567612187.21</v>
       </c>
       <c r="AJ106" t="n">
-        <v>19931721687237.37</v>
+        <v>21863935481152.73</v>
       </c>
     </row>
     <row r="107" ht="16" customFormat="1" customHeight="1" s="111">
@@ -18944,100 +18944,100 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>300682323952.9417</v>
+        <v>47594150485.69439</v>
       </c>
       <c r="F107" t="n">
-        <v>300682323952.9417</v>
+        <v>47594150485.69439</v>
       </c>
       <c r="G107" t="n">
-        <v>408408744844.6848</v>
+        <v>64645859478.10359</v>
       </c>
       <c r="H107" t="n">
-        <v>408408744844.6848</v>
+        <v>64645859478.10359</v>
       </c>
       <c r="I107" t="n">
-        <v>408408744844.6848</v>
+        <v>64645859478.10359</v>
       </c>
       <c r="J107" t="n">
-        <v>408408744844.6848</v>
+        <v>64645859478.10359</v>
       </c>
       <c r="K107" t="n">
-        <v>408408744844.6848</v>
+        <v>64645859478.10359</v>
       </c>
       <c r="L107" t="n">
-        <v>408408744844.6848</v>
+        <v>64645859478.10359</v>
       </c>
       <c r="M107" t="n">
-        <v>408408744844.6848</v>
+        <v>64645859478.10359</v>
       </c>
       <c r="N107" t="n">
-        <v>408408744844.6848</v>
+        <v>64645859478.10359</v>
       </c>
       <c r="O107" t="n">
-        <v>408408744844.6848</v>
+        <v>64645859478.10359</v>
       </c>
       <c r="P107" t="n">
-        <v>408408744844.6848</v>
+        <v>64645859478.10359</v>
       </c>
       <c r="Q107" t="n">
-        <v>408408744844.6848</v>
+        <v>64645859478.10359</v>
       </c>
       <c r="R107" t="n">
-        <v>408408744844.6848</v>
+        <v>64645859478.10359</v>
       </c>
       <c r="S107" t="n">
-        <v>408408744844.6848</v>
+        <v>64645859478.10359</v>
       </c>
       <c r="T107" t="n">
-        <v>408408744844.6848</v>
+        <v>64645859478.10359</v>
       </c>
       <c r="U107" t="n">
-        <v>408408744844.6848</v>
+        <v>64645859478.10359</v>
       </c>
       <c r="V107" t="n">
-        <v>408408744844.6848</v>
+        <v>64645859478.10359</v>
       </c>
       <c r="W107" t="n">
-        <v>408408744844.6848</v>
+        <v>64645859478.10359</v>
       </c>
       <c r="X107" t="n">
-        <v>408408744844.6848</v>
+        <v>64645859478.10359</v>
       </c>
       <c r="Y107" t="n">
-        <v>408408744844.6848</v>
+        <v>64645859478.10359</v>
       </c>
       <c r="Z107" t="n">
-        <v>408408744844.6848</v>
+        <v>64645859478.10359</v>
       </c>
       <c r="AA107" t="n">
-        <v>408408744844.6848</v>
+        <v>64645859478.10359</v>
       </c>
       <c r="AB107" t="n">
-        <v>408408744844.6848</v>
+        <v>64645859478.10359</v>
       </c>
       <c r="AC107" t="n">
-        <v>408408744844.6848</v>
+        <v>64645859478.10359</v>
       </c>
       <c r="AD107" t="n">
-        <v>408408744844.6848</v>
+        <v>64645859478.10359</v>
       </c>
       <c r="AE107" t="n">
-        <v>408408744844.6848</v>
+        <v>64645859478.10359</v>
       </c>
       <c r="AF107" t="n">
-        <v>408408744844.6848</v>
+        <v>64645859478.10359</v>
       </c>
       <c r="AG107" t="n">
-        <v>408408744844.6848</v>
+        <v>64645859478.10359</v>
       </c>
       <c r="AH107" t="n">
-        <v>408408744844.6848</v>
+        <v>64645859478.10359</v>
       </c>
       <c r="AI107" t="n">
-        <v>408408744844.6848</v>
+        <v>64645859478.10359</v>
       </c>
       <c r="AJ107" t="n">
-        <v>408408744844.6848</v>
+        <v>64645859478.10359</v>
       </c>
     </row>
     <row r="108" customFormat="1" s="111">
@@ -19048,100 +19048,100 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>3387586396278.387</v>
+        <v>2137059066379.78</v>
       </c>
       <c r="F108" t="n">
-        <v>3387586396278.387</v>
+        <v>2137059066379.78</v>
       </c>
       <c r="G108" t="n">
-        <v>3334256837681.84</v>
+        <v>2103416111375.005</v>
       </c>
       <c r="H108" t="n">
-        <v>3337554306926.617</v>
+        <v>2105496320031.351</v>
       </c>
       <c r="I108" t="n">
-        <v>3305945775066.709</v>
+        <v>2085556075950.675</v>
       </c>
       <c r="J108" t="n">
-        <v>3212348746863.341</v>
+        <v>2026510385506.305</v>
       </c>
       <c r="K108" t="n">
-        <v>3210033821526.371</v>
+        <v>2025050014728.81</v>
       </c>
       <c r="L108" t="n">
-        <v>3222599230527.31</v>
+        <v>2032976903695.458</v>
       </c>
       <c r="M108" t="n">
-        <v>3114250127704.312</v>
+        <v>1964624866157.351</v>
       </c>
       <c r="N108" t="n">
-        <v>3171751959942.291</v>
+        <v>2000899900220.725</v>
       </c>
       <c r="O108" t="n">
-        <v>3171482282638.926</v>
+        <v>2000729774278.908</v>
       </c>
       <c r="P108" t="n">
-        <v>3120288493482.305</v>
+        <v>1968434169544.02</v>
       </c>
       <c r="Q108" t="n">
-        <v>3104571884890.354</v>
+        <v>1958519346140.233</v>
       </c>
       <c r="R108" t="n">
-        <v>3112562702888.436</v>
+        <v>1963560354118.465</v>
       </c>
       <c r="S108" t="n">
-        <v>3125084156864.418</v>
+        <v>1971459514055.177</v>
       </c>
       <c r="T108" t="n">
-        <v>3176155599761.462</v>
+        <v>2003677936645.411</v>
       </c>
       <c r="U108" t="n">
-        <v>3185597590634.079</v>
+        <v>2009634417112.202</v>
       </c>
       <c r="V108" t="n">
-        <v>3197305413343.196</v>
+        <v>2017020297718.988</v>
       </c>
       <c r="W108" t="n">
-        <v>3332936266322.624</v>
+        <v>2102583028859.644</v>
       </c>
       <c r="X108" t="n">
-        <v>3375272149221.508</v>
+        <v>2129290622939.502</v>
       </c>
       <c r="Y108" t="n">
-        <v>3398653594294.529</v>
+        <v>2144040808863.396</v>
       </c>
       <c r="Z108" t="n">
-        <v>3429571885689.709</v>
+        <v>2163545614708.535</v>
       </c>
       <c r="AA108" t="n">
-        <v>3462761669668.187</v>
+        <v>2184483391776.099</v>
       </c>
       <c r="AB108" t="n">
-        <v>3485960589352.024</v>
+        <v>2199118431548.082</v>
       </c>
       <c r="AC108" t="n">
-        <v>3506653078613.157</v>
+        <v>2212172289548.589</v>
       </c>
       <c r="AD108" t="n">
-        <v>3537951313941.96</v>
+        <v>2231916783045.372</v>
       </c>
       <c r="AE108" t="n">
-        <v>3572258067717.139</v>
+        <v>2253559200571.268</v>
       </c>
       <c r="AF108" t="n">
-        <v>3582620132113.299</v>
+        <v>2260096109471.526</v>
       </c>
       <c r="AG108" t="n">
-        <v>3645087045798.152</v>
+        <v>2299503365441.628</v>
       </c>
       <c r="AH108" t="n">
-        <v>3714109811863.743</v>
+        <v>2343046381250.504</v>
       </c>
       <c r="AI108" t="n">
-        <v>3754706851496.704</v>
+        <v>2368657025959.407</v>
       </c>
       <c r="AJ108" t="n">
-        <v>3838021015216.645</v>
+        <v>2421215770772.868</v>
       </c>
     </row>
     <row r="109" ht="16" customFormat="1" customHeight="1" s="98" thickBot="1">
@@ -19152,100 +19152,100 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>24934903606569.29</v>
+        <v>147649707243.6578</v>
       </c>
       <c r="F109" t="n">
-        <v>24574107756517.3</v>
+        <v>145513288251.4116</v>
       </c>
       <c r="G109" t="n">
-        <v>24136715689019.77</v>
+        <v>142923311897.9561</v>
       </c>
       <c r="H109" t="n">
-        <v>23997316100421.62</v>
+        <v>142097870229.0747</v>
       </c>
       <c r="I109" t="n">
-        <v>23674544308812.09</v>
+        <v>140186607154.2456</v>
       </c>
       <c r="J109" t="n">
-        <v>23488055296799.87</v>
+        <v>139082329854.3522</v>
       </c>
       <c r="K109" t="n">
-        <v>23286859255946.39</v>
+        <v>137890966254.1828</v>
       </c>
       <c r="L109" t="n">
-        <v>23284435648390.63</v>
+        <v>137876615087.9731</v>
       </c>
       <c r="M109" t="n">
-        <v>23353953285951.84</v>
+        <v>138288257298.2714</v>
       </c>
       <c r="N109" t="n">
-        <v>23538838368095.68</v>
+        <v>139383037076.9695</v>
       </c>
       <c r="O109" t="n">
-        <v>23505108367365.09</v>
+        <v>139183308021.9958</v>
       </c>
       <c r="P109" t="n">
-        <v>23600277249327.36</v>
+        <v>139746841684.7741</v>
       </c>
       <c r="Q109" t="n">
-        <v>23638289508478.71</v>
+        <v>139971927733.7889</v>
       </c>
       <c r="R109" t="n">
-        <v>23681840470940.64</v>
+        <v>140229810698.1324</v>
       </c>
       <c r="S109" t="n">
-        <v>23724264835981.05</v>
+        <v>140481022620.8674</v>
       </c>
       <c r="T109" t="n">
-        <v>23769499035022.18</v>
+        <v>140748872713.7013</v>
       </c>
       <c r="U109" t="n">
-        <v>23805192222257.83</v>
+        <v>140960226594.554</v>
       </c>
       <c r="V109" t="n">
-        <v>23879526733896.26</v>
+        <v>141400391475.6655</v>
       </c>
       <c r="W109" t="n">
-        <v>23962334656374.24</v>
+        <v>141890730869.1617</v>
       </c>
       <c r="X109" t="n">
-        <v>24046596433896.09</v>
+        <v>142389679129.7699</v>
       </c>
       <c r="Y109" t="n">
-        <v>24149847443413.93</v>
+        <v>143001070357.4426</v>
       </c>
       <c r="Z109" t="n">
-        <v>24296104686059.14</v>
+        <v>143867118985.4847</v>
       </c>
       <c r="AA109" t="n">
-        <v>24461597398365.86</v>
+        <v>144847068653.973</v>
       </c>
       <c r="AB109" t="n">
-        <v>24619495456875</v>
+        <v>145782047287.982</v>
       </c>
       <c r="AC109" t="n">
-        <v>24776943180378.52</v>
+        <v>146714359305.2361</v>
       </c>
       <c r="AD109" t="n">
-        <v>24821681505229.59</v>
+        <v>146979273125.2795</v>
       </c>
       <c r="AE109" t="n">
-        <v>24891310448515.94</v>
+        <v>147391574422.0531</v>
       </c>
       <c r="AF109" t="n">
-        <v>24901296738487.95</v>
+        <v>147450707307.1881</v>
       </c>
       <c r="AG109" t="n">
-        <v>25094125617387.95</v>
+        <v>148592525537.8472</v>
       </c>
       <c r="AH109" t="n">
-        <v>25285644028882.56</v>
+        <v>149726583957.9286</v>
       </c>
       <c r="AI109" t="n">
-        <v>25477192809044.48</v>
+        <v>150860822203.2426</v>
       </c>
       <c r="AJ109" t="n">
-        <v>25755501168889.77</v>
+        <v>152508799211.8159</v>
       </c>
     </row>
   </sheetData>
@@ -19391,100 +19391,100 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>58018181540311.38</v>
+        <v>16161244611170.13</v>
       </c>
       <c r="E3" t="n">
-        <v>57247241226933.74</v>
+        <v>16093363809469.1</v>
       </c>
       <c r="F3" t="n">
-        <v>58253402413240.06</v>
+        <v>16328300522138.52</v>
       </c>
       <c r="G3" t="n">
-        <v>59623065585235.45</v>
+        <v>16709925361900.54</v>
       </c>
       <c r="H3" t="n">
-        <v>60519888504207.76</v>
+        <v>17025320793495.89</v>
       </c>
       <c r="I3" t="n">
-        <v>61363255806632.13</v>
+        <v>17315015982643.9</v>
       </c>
       <c r="J3" t="n">
-        <v>62085948437171.53</v>
+        <v>17538087850109.91</v>
       </c>
       <c r="K3" t="n">
-        <v>62860091940297.42</v>
+        <v>17760064616281.52</v>
       </c>
       <c r="L3" t="n">
-        <v>63298114758116.3</v>
+        <v>17948020099324.23</v>
       </c>
       <c r="M3" t="n">
-        <v>63879172766106.64</v>
+        <v>18153040800356.41</v>
       </c>
       <c r="N3" t="n">
-        <v>64469384058302.77</v>
+        <v>18373790410855.07</v>
       </c>
       <c r="O3" t="n">
-        <v>65103534542923.84</v>
+        <v>18637241418274.68</v>
       </c>
       <c r="P3" t="n">
-        <v>65544692428796.15</v>
+        <v>18832692832341.46</v>
       </c>
       <c r="Q3" t="n">
-        <v>65959001299139.12</v>
+        <v>19001343327666.7</v>
       </c>
       <c r="R3" t="n">
-        <v>66339241198856.98</v>
+        <v>19157906014976.96</v>
       </c>
       <c r="S3" t="n">
-        <v>66796313026887.27</v>
+        <v>19322060894447.05</v>
       </c>
       <c r="T3" t="n">
-        <v>67245533659425.36</v>
+        <v>19508512600120.16</v>
       </c>
       <c r="U3" t="n">
-        <v>67603316071361.41</v>
+        <v>19661628367506.93</v>
       </c>
       <c r="V3" t="n">
-        <v>68023651313353.41</v>
+        <v>19804432390784.99</v>
       </c>
       <c r="W3" t="n">
-        <v>68377140897346.55</v>
+        <v>19942069273337.31</v>
       </c>
       <c r="X3" t="n">
-        <v>68746745032475.19</v>
+        <v>20086420669735.56</v>
       </c>
       <c r="Y3" t="n">
-        <v>69228101631066.41</v>
+        <v>20247787762960.07</v>
       </c>
       <c r="Z3" t="n">
-        <v>69731181605800.87</v>
+        <v>20423331495408.62</v>
       </c>
       <c r="AA3" t="n">
-        <v>70198211029182.11</v>
+        <v>20590266493977.05</v>
       </c>
       <c r="AB3" t="n">
-        <v>70688176740105.11</v>
+        <v>20768228710673.67</v>
       </c>
       <c r="AC3" t="n">
-        <v>71199237263851.08</v>
+        <v>20962983432898.12</v>
       </c>
       <c r="AD3" t="n">
-        <v>71726548322259.92</v>
+        <v>21165262072343.68</v>
       </c>
       <c r="AE3" t="n">
-        <v>72222727591351.95</v>
+        <v>21368487207558.84</v>
       </c>
       <c r="AF3" t="n">
-        <v>72709677943665.58</v>
+        <v>21544447233571.79</v>
       </c>
       <c r="AG3" t="n">
-        <v>73154471195139.16</v>
+        <v>21701754573429.81</v>
       </c>
       <c r="AH3" t="n">
-        <v>73588996390066.02</v>
+        <v>21859957774438.75</v>
       </c>
       <c r="AI3" t="n">
-        <v>73909396084353.62</v>
+        <v>21986307085868.47</v>
       </c>
     </row>
     <row r="4" customFormat="1" s="111">
@@ -19494,100 +19494,100 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>14027531843875.44</v>
+        <v>742356241414.8458</v>
       </c>
       <c r="E4" t="n">
-        <v>13357882923348.6</v>
+        <v>725543469147.4666</v>
       </c>
       <c r="F4" t="n">
-        <v>12587814844277.79</v>
+        <v>637426952353.028</v>
       </c>
       <c r="G4" t="n">
-        <v>12391713972356.94</v>
+        <v>603340289625.9615</v>
       </c>
       <c r="H4" t="n">
-        <v>12703018393461.46</v>
+        <v>624958864326.6675</v>
       </c>
       <c r="I4" t="n">
-        <v>12674780562896.84</v>
+        <v>617959478239.0577</v>
       </c>
       <c r="J4" t="n">
-        <v>12679445565319.61</v>
+        <v>615187827348.4694</v>
       </c>
       <c r="K4" t="n">
-        <v>12695393670644.64</v>
+        <v>612430761584.287</v>
       </c>
       <c r="L4" t="n">
-        <v>12624281414740.37</v>
+        <v>608457425128.2422</v>
       </c>
       <c r="M4" t="n">
-        <v>12562502826516.45</v>
+        <v>606298467020.5863</v>
       </c>
       <c r="N4" t="n">
-        <v>12497485224073.23</v>
+        <v>604559455892.3131</v>
       </c>
       <c r="O4" t="n">
-        <v>12461784603003.66</v>
+        <v>605503545597.559</v>
       </c>
       <c r="P4" t="n">
-        <v>12413121228184.07</v>
+        <v>610453285201.2533</v>
       </c>
       <c r="Q4" t="n">
-        <v>12401796174687.26</v>
+        <v>618668114586.7213</v>
       </c>
       <c r="R4" t="n">
-        <v>12422982949650.28</v>
+        <v>629311719115.9586</v>
       </c>
       <c r="S4" t="n">
-        <v>12413364321506.23</v>
+        <v>636813339539.0708</v>
       </c>
       <c r="T4" t="n">
-        <v>12377283133480.87</v>
+        <v>644105027586.3209</v>
       </c>
       <c r="U4" t="n">
-        <v>12381184347571.69</v>
+        <v>646334627735.1915</v>
       </c>
       <c r="V4" t="n">
-        <v>12371962692021.17</v>
+        <v>647065259643.7437</v>
       </c>
       <c r="W4" t="n">
-        <v>12368554945634.09</v>
+        <v>648314608596.9939</v>
       </c>
       <c r="X4" t="n">
-        <v>12350005970211.03</v>
+        <v>648022658297.8158</v>
       </c>
       <c r="Y4" t="n">
-        <v>12333443042678.12</v>
+        <v>646828527145.0901</v>
       </c>
       <c r="Z4" t="n">
-        <v>12285709428959.89</v>
+        <v>642685409022.2566</v>
       </c>
       <c r="AA4" t="n">
-        <v>12275822535587.59</v>
+        <v>642101916554.1389</v>
       </c>
       <c r="AB4" t="n">
-        <v>12220653556206.71</v>
+        <v>637162835986.5046</v>
       </c>
       <c r="AC4" t="n">
-        <v>12194039953020.22</v>
+        <v>634262984662.5386</v>
       </c>
       <c r="AD4" t="n">
-        <v>12163715454675.32</v>
+        <v>630898934423.9934</v>
       </c>
       <c r="AE4" t="n">
-        <v>12126843149946.18</v>
+        <v>626858653998.9119</v>
       </c>
       <c r="AF4" t="n">
-        <v>12069242981038.78</v>
+        <v>621185575974.5671</v>
       </c>
       <c r="AG4" t="n">
-        <v>12038239497590.24</v>
+        <v>617812938787.21</v>
       </c>
       <c r="AH4" t="n">
-        <v>11971994979755.6</v>
+        <v>611297164665.0662</v>
       </c>
       <c r="AI4" t="n">
-        <v>11913280113413.03</v>
+        <v>605343113904.8718</v>
       </c>
     </row>
     <row r="5" customFormat="1" s="111">
@@ -19597,100 +19597,100 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>99131490195697.88</v>
+        <v>18564402845056.66</v>
       </c>
       <c r="E5" t="n">
-        <v>102738750344168.1</v>
+        <v>18201168622591.95</v>
       </c>
       <c r="F5" t="n">
-        <v>104782583744104.5</v>
+        <v>18305718196706.94</v>
       </c>
       <c r="G5" t="n">
-        <v>107188965202116.7</v>
+        <v>18469740153897.96</v>
       </c>
       <c r="H5" t="n">
-        <v>109183419050695.2</v>
+        <v>19261589062772.29</v>
       </c>
       <c r="I5" t="n">
-        <v>110833501404418.6</v>
+        <v>19570264439761.12</v>
       </c>
       <c r="J5" t="n">
-        <v>111543978557939.2</v>
+        <v>19228482510163.45</v>
       </c>
       <c r="K5" t="n">
-        <v>111237190310729.3</v>
+        <v>18327948869340.08</v>
       </c>
       <c r="L5" t="n">
-        <v>111324402636916.9</v>
+        <v>18317746301126.97</v>
       </c>
       <c r="M5" t="n">
-        <v>111552227999547</v>
+        <v>18118514595195.47</v>
       </c>
       <c r="N5" t="n">
-        <v>112186412589628.6</v>
+        <v>18459691858869.12</v>
       </c>
       <c r="O5" t="n">
-        <v>112259418331911.4</v>
+        <v>19032830856414.92</v>
       </c>
       <c r="P5" t="n">
-        <v>113233882269638.3</v>
+        <v>19636935071955.82</v>
       </c>
       <c r="Q5" t="n">
-        <v>114119428213028.1</v>
+        <v>19813547776884.92</v>
       </c>
       <c r="R5" t="n">
-        <v>114559598853390</v>
+        <v>20041813300802.29</v>
       </c>
       <c r="S5" t="n">
-        <v>115470976388229.8</v>
+        <v>20061413834026.64</v>
       </c>
       <c r="T5" t="n">
-        <v>116392075962216.9</v>
+        <v>20535994519109.02</v>
       </c>
       <c r="U5" t="n">
-        <v>117145997757410</v>
+        <v>21067027201006.09</v>
       </c>
       <c r="V5" t="n">
-        <v>118219481281926.2</v>
+        <v>21499644006139.85</v>
       </c>
       <c r="W5" t="n">
-        <v>119097101634487.3</v>
+        <v>21960433834428.79</v>
       </c>
       <c r="X5" t="n">
-        <v>120071783909804.1</v>
+        <v>22508602646003.27</v>
       </c>
       <c r="Y5" t="n">
-        <v>121524515722439.1</v>
+        <v>22665075546398.46</v>
       </c>
       <c r="Z5" t="n">
-        <v>122731274686373.8</v>
+        <v>23250305515637.24</v>
       </c>
       <c r="AA5" t="n">
-        <v>123873222920376.5</v>
+        <v>23844740370404.26</v>
       </c>
       <c r="AB5" t="n">
-        <v>125031954955079.5</v>
+        <v>24427794765225.54</v>
       </c>
       <c r="AC5" t="n">
-        <v>126272102942327.6</v>
+        <v>25125970883610.59</v>
       </c>
       <c r="AD5" t="n">
-        <v>127515641246288.2</v>
+        <v>25863238938956.01</v>
       </c>
       <c r="AE5" t="n">
-        <v>128745651463407.5</v>
+        <v>26730589595382.86</v>
       </c>
       <c r="AF5" t="n">
-        <v>130179448044737</v>
+        <v>27252446468165.11</v>
       </c>
       <c r="AG5" t="n">
-        <v>131528670756363.7</v>
+        <v>27887485694412.09</v>
       </c>
       <c r="AH5" t="n">
-        <v>132907486416039.2</v>
+        <v>28675243181969.07</v>
       </c>
       <c r="AI5" t="n">
-        <v>133830770277521.6</v>
+        <v>29608198536750.25</v>
       </c>
     </row>
     <row r="6" customFormat="1" s="111">
@@ -19700,100 +19700,100 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>10150096393430.71</v>
+        <v>-27649707243.65783</v>
       </c>
       <c r="E6" t="n">
-        <v>10003218094584.25</v>
+        <v>-27249668410.10658</v>
       </c>
       <c r="F6" t="n">
-        <v>9825156834141.713</v>
+        <v>-26764705576.75388</v>
       </c>
       <c r="G6" t="n">
-        <v>9768438753516.934</v>
+        <v>-26610038321.63196</v>
       </c>
       <c r="H6" t="n">
-        <v>9637037171971.627</v>
+        <v>-26252168570.97507</v>
       </c>
       <c r="I6" t="n">
-        <v>9561115765747.229</v>
+        <v>-26045404458.72298</v>
       </c>
       <c r="J6" t="n">
-        <v>9479216495416.699</v>
+        <v>-25822301863.03074</v>
       </c>
       <c r="K6" t="n">
-        <v>9478218541733.039</v>
+        <v>-25819653343.21491</v>
       </c>
       <c r="L6" t="n">
-        <v>9506526450516.971</v>
+        <v>-25896706254.34217</v>
       </c>
       <c r="M6" t="n">
-        <v>9581796666701.957</v>
+        <v>-26101685953.24947</v>
       </c>
       <c r="N6" t="n">
-        <v>9568052505235.643</v>
+        <v>-26064331116.99112</v>
       </c>
       <c r="O6" t="n">
-        <v>9606791088143.268</v>
+        <v>-26169865754.99003</v>
       </c>
       <c r="P6" t="n">
-        <v>9622279604735.527</v>
+        <v>-26211964969.48197</v>
       </c>
       <c r="Q6" t="n">
-        <v>9640005693561.332</v>
+        <v>-26260264175.68023</v>
       </c>
       <c r="R6" t="n">
-        <v>9657264243322.102</v>
+        <v>-26307344709.61246</v>
       </c>
       <c r="S6" t="n">
-        <v>9675678859609.668</v>
+        <v>-26357498982.59617</v>
       </c>
       <c r="T6" t="n">
-        <v>9690220412389.094</v>
+        <v>-26397036736.84754</v>
       </c>
       <c r="U6" t="n">
-        <v>9720476806819.195</v>
+        <v>-26479472995.23645</v>
       </c>
       <c r="V6" t="n">
-        <v>9754196373369.979</v>
+        <v>-26571257488.24943</v>
       </c>
       <c r="W6" t="n">
-        <v>9788483916518.375</v>
+        <v>-26664735648.2326</v>
       </c>
       <c r="X6" t="n">
-        <v>9830532615542.588</v>
+        <v>-26779163358.01889</v>
       </c>
       <c r="Y6" t="n">
-        <v>9890035623795.016</v>
+        <v>-26941457387.00957</v>
       </c>
       <c r="Z6" t="n">
-        <v>9957403482657.238</v>
+        <v>-27124962177.6221</v>
       </c>
       <c r="AA6" t="n">
-        <v>10021673616443.85</v>
+        <v>-27300066703.73621</v>
       </c>
       <c r="AB6" t="n">
-        <v>10085771983192.55</v>
+        <v>-27474632366.98524</v>
       </c>
       <c r="AC6" t="n">
-        <v>10103982608871.21</v>
+        <v>-27524244090.3045</v>
       </c>
       <c r="AD6" t="n">
-        <v>10132334737440.88</v>
+        <v>-27601424149.43468</v>
       </c>
       <c r="AE6" t="n">
-        <v>10136384624826.02</v>
+        <v>-27612549587.43105</v>
       </c>
       <c r="AF6" t="n">
-        <v>10214908881038.39</v>
+        <v>-27826268168.28294</v>
       </c>
       <c r="AG6" t="n">
-        <v>10292838417147.84</v>
+        <v>-28038743184.84472</v>
       </c>
       <c r="AH6" t="n">
-        <v>10370815347345.43</v>
+        <v>-28251132057.40277</v>
       </c>
       <c r="AI6" t="n">
-        <v>10484120223902.47</v>
+        <v>-28559687992.34694</v>
       </c>
     </row>
     <row r="7" customFormat="1" s="111">
@@ -19803,100 +19803,100 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>27016402202140.05</v>
+        <v>8363439832242.804</v>
       </c>
       <c r="E7" t="n">
-        <v>24638002370688.14</v>
+        <v>7639700201702.385</v>
       </c>
       <c r="F7" t="n">
-        <v>25829764375753.25</v>
+        <v>8116769159469.974</v>
       </c>
       <c r="G7" t="n">
-        <v>26883587260374.23</v>
+        <v>8510012588786.721</v>
       </c>
       <c r="H7" t="n">
-        <v>27304616858724.9</v>
+        <v>8698738301408.914</v>
       </c>
       <c r="I7" t="n">
-        <v>27841739066508.39</v>
+        <v>8921068422701.215</v>
       </c>
       <c r="J7" t="n">
-        <v>28489435872939.22</v>
+        <v>9182386832148.748</v>
       </c>
       <c r="K7" t="n">
-        <v>29432412298797.25</v>
+        <v>9544509398890.143</v>
       </c>
       <c r="L7" t="n">
-        <v>30016284258769.09</v>
+        <v>9790485699851.969</v>
       </c>
       <c r="M7" t="n">
-        <v>30732318848754.37</v>
+        <v>10090551373563.11</v>
       </c>
       <c r="N7" t="n">
-        <v>31287834467726.83</v>
+        <v>10322561668078.66</v>
       </c>
       <c r="O7" t="n">
-        <v>31902247489982.31</v>
+        <v>10578202027413.29</v>
       </c>
       <c r="P7" t="n">
-        <v>32362710278923.35</v>
+        <v>10777499834203.34</v>
       </c>
       <c r="Q7" t="n">
-        <v>32754713286666.42</v>
+        <v>10949632716377.5</v>
       </c>
       <c r="R7" t="n">
-        <v>33134580987753.4</v>
+        <v>11114890826903.14</v>
       </c>
       <c r="S7" t="n">
-        <v>33590945636800.21</v>
+        <v>11307099797212.74</v>
       </c>
       <c r="T7" t="n">
-        <v>33994365841739.18</v>
+        <v>11489921237758.78</v>
       </c>
       <c r="U7" t="n">
-        <v>34291331952621.37</v>
+        <v>11622136557098.07</v>
       </c>
       <c r="V7" t="n">
-        <v>34603437727799.85</v>
+        <v>11761406030160.21</v>
       </c>
       <c r="W7" t="n">
-        <v>34908419991314.86</v>
+        <v>11897759480347.78</v>
       </c>
       <c r="X7" t="n">
-        <v>35172072156129.26</v>
+        <v>12016923975576.2</v>
       </c>
       <c r="Y7" t="n">
-        <v>35497775021161.63</v>
+        <v>12148892105599.44</v>
       </c>
       <c r="Z7" t="n">
-        <v>35839801095293.33</v>
+        <v>12288683440372.52</v>
       </c>
       <c r="AA7" t="n">
-        <v>36213668428484.38</v>
+        <v>12444537512435</v>
       </c>
       <c r="AB7" t="n">
-        <v>36617922416776.23</v>
+        <v>12611430567326.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>37071860232945.88</v>
+        <v>12802312976592.65</v>
       </c>
       <c r="AD7" t="n">
-        <v>37567087199211.01</v>
+        <v>13010854220049.24</v>
       </c>
       <c r="AE7" t="n">
-        <v>38063120509121.44</v>
+        <v>13221535946951.31</v>
       </c>
       <c r="AF7" t="n">
-        <v>38560268179951.97</v>
+        <v>13431151261318.92</v>
       </c>
       <c r="AG7" t="n">
-        <v>39006160440041.99</v>
+        <v>13620713518701</v>
       </c>
       <c r="AH7" t="n">
-        <v>39474001518370.92</v>
+        <v>13819463143844.76</v>
       </c>
       <c r="AI7" t="n">
-        <v>39850880694267.13</v>
+        <v>13991588167973.17</v>
       </c>
     </row>
     <row r="8" customFormat="1" s="111">
@@ -20112,100 +20112,100 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>51227144284564.89</v>
+        <v>12809384503297.26</v>
       </c>
       <c r="E10" t="n">
-        <v>50877904631113.81</v>
+        <v>12725406386244.62</v>
       </c>
       <c r="F10" t="n">
-        <v>50263720322369.8</v>
+        <v>12535667571023.62</v>
       </c>
       <c r="G10" t="n">
-        <v>50196776491149.09</v>
+        <v>12429297703168.91</v>
       </c>
       <c r="H10" t="n">
-        <v>49993384115457.12</v>
+        <v>12339723397584.52</v>
       </c>
       <c r="I10" t="n">
-        <v>49692536145870.49</v>
+        <v>12275039132383.24</v>
       </c>
       <c r="J10" t="n">
-        <v>49691895841954.68</v>
+        <v>12205355576901.21</v>
       </c>
       <c r="K10" t="n">
-        <v>49824790292219.27</v>
+        <v>12255714737477.38</v>
       </c>
       <c r="L10" t="n">
-        <v>50034777691873.87</v>
+        <v>12297237132311.68</v>
       </c>
       <c r="M10" t="n">
-        <v>50330077012034.29</v>
+        <v>12394785068912.62</v>
       </c>
       <c r="N10" t="n">
-        <v>50625210082051.43</v>
+        <v>12474032765840.08</v>
       </c>
       <c r="O10" t="n">
-        <v>51581741479023.15</v>
+        <v>12725971831919.75</v>
       </c>
       <c r="P10" t="n">
-        <v>52540830758211.74</v>
+        <v>13064283225383.56</v>
       </c>
       <c r="Q10" t="n">
-        <v>53371967900683.91</v>
+        <v>13349065228447.38</v>
       </c>
       <c r="R10" t="n">
-        <v>54383846746182.77</v>
+        <v>13671060327944.11</v>
       </c>
       <c r="S10" t="n">
-        <v>55359894329142.32</v>
+        <v>14027532078554.98</v>
       </c>
       <c r="T10" t="n">
-        <v>56254334640827.25</v>
+        <v>14336044107086.53</v>
       </c>
       <c r="U10" t="n">
-        <v>57280914908555.24</v>
+        <v>14649957535747.55</v>
       </c>
       <c r="V10" t="n">
-        <v>58325991605382.59</v>
+        <v>15033977380312.17</v>
       </c>
       <c r="W10" t="n">
-        <v>59313378339772.71</v>
+        <v>15362209000801.51</v>
       </c>
       <c r="X10" t="n">
-        <v>60273031477325.26</v>
+        <v>15677551663774.7</v>
       </c>
       <c r="Y10" t="n">
-        <v>61440717678004.06</v>
+        <v>16026451841911.8</v>
       </c>
       <c r="Z10" t="n">
-        <v>62515628442111.15</v>
+        <v>16394321620423.82</v>
       </c>
       <c r="AA10" t="n">
-        <v>63709873405546.82</v>
+        <v>16752286945666.82</v>
       </c>
       <c r="AB10" t="n">
-        <v>64844986508012.27</v>
+        <v>17146308732290.05</v>
       </c>
       <c r="AC10" t="n">
-        <v>66023879528719.05</v>
+        <v>17539047040076.99</v>
       </c>
       <c r="AD10" t="n">
-        <v>67259495314424.32</v>
+        <v>17939554235429.54</v>
       </c>
       <c r="AE10" t="n">
-        <v>68502113357978.1</v>
+        <v>18349106273463.51</v>
       </c>
       <c r="AF10" t="n">
-        <v>69755184272815.7</v>
+        <v>18779456300162.39</v>
       </c>
       <c r="AG10" t="n">
-        <v>71022740561187.36</v>
+        <v>19197553320262.56</v>
       </c>
       <c r="AH10" t="n">
-        <v>72286881239278.62</v>
+        <v>19641805661646.27</v>
       </c>
       <c r="AI10" t="n">
-        <v>73710590793169.33</v>
+        <v>20054530559504.83</v>
       </c>
     </row>
     <row r="11" customFormat="1" s="111">
@@ -20215,100 +20215,100 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1515839306918.089</v>
+        <v>-39597677552.01637</v>
       </c>
       <c r="E11" t="n">
-        <v>2064609192882.285</v>
+        <v>32880809019.74922</v>
       </c>
       <c r="F11" t="n">
-        <v>2189508760042.139</v>
+        <v>48459038010.65326</v>
       </c>
       <c r="G11" t="n">
-        <v>2299074499799.567</v>
+        <v>60889232729.04567</v>
       </c>
       <c r="H11" t="n">
-        <v>2449710526272.349</v>
+        <v>81442231454.35973</v>
       </c>
       <c r="I11" t="n">
-        <v>2662298488078.037</v>
+        <v>115750367137.9635</v>
       </c>
       <c r="J11" t="n">
-        <v>2712062359926.391</v>
+        <v>120576022830.5377</v>
       </c>
       <c r="K11" t="n">
-        <v>2744928819690.217</v>
+        <v>122760702047.9007</v>
       </c>
       <c r="L11" t="n">
-        <v>2966583690884.71</v>
+        <v>161357168223.8622</v>
       </c>
       <c r="M11" t="n">
-        <v>2885771905433.298</v>
+        <v>141535560310.3391</v>
       </c>
       <c r="N11" t="n">
-        <v>2946685284552.075</v>
+        <v>148897975437.9497</v>
       </c>
       <c r="O11" t="n">
-        <v>3018772572367.396</v>
+        <v>157571619185.3085</v>
       </c>
       <c r="P11" t="n">
-        <v>3086240242604.509</v>
+        <v>166024855849.6781</v>
       </c>
       <c r="Q11" t="n">
-        <v>3151920502129.995</v>
+        <v>174498337134.4868</v>
       </c>
       <c r="R11" t="n">
-        <v>3340922067621.108</v>
+        <v>206869714994.4965</v>
       </c>
       <c r="S11" t="n">
-        <v>3292834197720.251</v>
+        <v>193568861883.2256</v>
       </c>
       <c r="T11" t="n">
-        <v>3347899731931.06</v>
+        <v>199766881129.845</v>
       </c>
       <c r="U11" t="n">
-        <v>3465612625555.55</v>
+        <v>218952640247.2175</v>
       </c>
       <c r="V11" t="n">
-        <v>3504392289620.226</v>
+        <v>222992660526.4082</v>
       </c>
       <c r="W11" t="n">
-        <v>3542995640625.026</v>
+        <v>227011552332.3777</v>
       </c>
       <c r="X11" t="n">
-        <v>3590099067472.862</v>
+        <v>232378130495.3199</v>
       </c>
       <c r="Y11" t="n">
-        <v>3785049814256.014</v>
+        <v>265753634996.9654</v>
       </c>
       <c r="Z11" t="n">
-        <v>3826396769572.975</v>
+        <v>270028762574.3907</v>
       </c>
       <c r="AA11" t="n">
-        <v>3896754253224.879</v>
+        <v>278993882368.1565</v>
       </c>
       <c r="AB11" t="n">
-        <v>3956567092817.657</v>
+        <v>286647378823.2054</v>
       </c>
       <c r="AC11" t="n">
-        <v>4021047580251.992</v>
+        <v>294661092831.299</v>
       </c>
       <c r="AD11" t="n">
-        <v>4052937247200.317</v>
+        <v>296380927708.2764</v>
       </c>
       <c r="AE11" t="n">
-        <v>4155068969261.843</v>
+        <v>310872975668.7908</v>
       </c>
       <c r="AF11" t="n">
-        <v>4215534844198.758</v>
+        <v>318211901493.1417</v>
       </c>
       <c r="AG11" t="n">
-        <v>4257842326231.264</v>
+        <v>322120174944.1724</v>
       </c>
       <c r="AH11" t="n">
-        <v>4337966760584.266</v>
+        <v>332408552147.788</v>
       </c>
       <c r="AI11" t="n">
-        <v>4326434925068.289</v>
+        <v>326821503860.5573</v>
       </c>
     </row>
     <row r="12" ht="16" customFormat="1" customHeight="1" s="98" thickBot="1">
@@ -63800,100 +63800,100 @@
         </is>
       </c>
       <c r="D197" s="111" t="n">
-        <v>3940195536032.563</v>
+        <v>5997726573224.076</v>
       </c>
       <c r="E197" s="111" t="n">
-        <v>3758793232816.94</v>
+        <v>5721597786088.826</v>
       </c>
       <c r="F197" s="111" t="n">
-        <v>3902890612055.812</v>
+        <v>5940941387869.351</v>
       </c>
       <c r="G197" s="111" t="n">
-        <v>4017631847603.065</v>
+        <v>6115599358823.572</v>
       </c>
       <c r="H197" s="111" t="n">
-        <v>4042847824330.915</v>
+        <v>6153982868552.307</v>
       </c>
       <c r="I197" s="111" t="n">
-        <v>4087300960016.067</v>
+        <v>6221648990886.538</v>
       </c>
       <c r="J197" s="111" t="n">
-        <v>4129092086682.47</v>
+        <v>6285263029489.414</v>
       </c>
       <c r="K197" s="111" t="n">
-        <v>4184193719973.273</v>
+        <v>6369138189286.45</v>
       </c>
       <c r="L197" s="111" t="n">
-        <v>4189398238992.93</v>
+        <v>6377060456529.176</v>
       </c>
       <c r="M197" s="111" t="n">
-        <v>4189614073179.33</v>
+        <v>6377388997187.463</v>
       </c>
       <c r="N197" s="111" t="n">
-        <v>4193692956356.6</v>
+        <v>6383597832712.926</v>
       </c>
       <c r="O197" s="111" t="n">
-        <v>4188197598182.456</v>
+        <v>6375232852993.254</v>
       </c>
       <c r="P197" s="111" t="n">
-        <v>4170767481419.068</v>
+        <v>6348700902096.363</v>
       </c>
       <c r="Q197" s="111" t="n">
-        <v>4161662230054.376</v>
+        <v>6334840978758.425</v>
       </c>
       <c r="R197" s="111" t="n">
-        <v>4150539802836.629</v>
+        <v>6317910530339.664</v>
       </c>
       <c r="S197" s="111" t="n">
-        <v>4148783005114.935</v>
+        <v>6315236350268.438</v>
       </c>
       <c r="T197" s="111" t="n">
-        <v>4136146283349.382</v>
+        <v>6296000857705.038</v>
       </c>
       <c r="U197" s="111" t="n">
-        <v>4119271175907.482</v>
+        <v>6270313736493.739</v>
       </c>
       <c r="V197" s="111" t="n">
-        <v>4101171066320.886</v>
+        <v>6242761929165.136</v>
       </c>
       <c r="W197" s="111" t="n">
-        <v>4088075632981</v>
+        <v>6222828190391.956</v>
       </c>
       <c r="X197" s="111" t="n">
-        <v>4078869119296.179</v>
+        <v>6208814126554.452</v>
       </c>
       <c r="Y197" s="111" t="n">
-        <v>4087173053656.051</v>
+        <v>6221454293093.666</v>
       </c>
       <c r="Z197" s="111" t="n">
-        <v>4088704112992.999</v>
+        <v>6223784856434.093</v>
       </c>
       <c r="AA197" s="111" t="n">
-        <v>4089807682680.629</v>
+        <v>6225464699269.397</v>
       </c>
       <c r="AB197" s="111" t="n">
-        <v>4087616921406.666</v>
+        <v>6222129944182.175</v>
       </c>
       <c r="AC197" s="111" t="n">
-        <v>4075333831912.076</v>
+        <v>6203432747154.95</v>
       </c>
       <c r="AD197" s="111" t="n">
-        <v>4060633494330.688</v>
+        <v>6181056039059.89</v>
       </c>
       <c r="AE197" s="111" t="n">
-        <v>4041354074134.089</v>
+        <v>6151709096815.008</v>
       </c>
       <c r="AF197" s="111" t="n">
-        <v>4029514465702.268</v>
+        <v>6133686962263.889</v>
       </c>
       <c r="AG197" s="111" t="n">
-        <v>4017863286515.074</v>
+        <v>6115951652840.439</v>
       </c>
       <c r="AH197" s="111" t="n">
-        <v>4009222846413.624</v>
+        <v>6102799260598.251</v>
       </c>
       <c r="AI197" s="111" t="n">
-        <v>3979620781726.519</v>
+        <v>6057739291271.217</v>
       </c>
     </row>
     <row r="198" customFormat="1" s="111">
@@ -63903,100 +63903,100 @@
         </is>
       </c>
       <c r="D198" s="111" t="n">
-        <v>740858857240.0198</v>
+        <v>282959253724.7598</v>
       </c>
       <c r="E198" s="111" t="n">
-        <v>671429648156.5477</v>
+        <v>256441871909.083</v>
       </c>
       <c r="F198" s="111" t="n">
-        <v>702468871769.8663</v>
+        <v>268296809545.3016</v>
       </c>
       <c r="G198" s="111" t="n">
-        <v>737605687648.9333</v>
+        <v>281716757356.203</v>
       </c>
       <c r="H198" s="111" t="n">
-        <v>753687963441.1765</v>
+        <v>287859126731.8242</v>
       </c>
       <c r="I198" s="111" t="n">
-        <v>769442137617.2422</v>
+        <v>293876182915.1253</v>
       </c>
       <c r="J198" s="111" t="n">
-        <v>782336064549.8978</v>
+        <v>298800813169.3112</v>
       </c>
       <c r="K198" s="111" t="n">
-        <v>802276871375.4636</v>
+        <v>306416887085.2686</v>
       </c>
       <c r="L198" s="111" t="n">
-        <v>811042205629.5675</v>
+        <v>309764667050.3069</v>
       </c>
       <c r="M198" s="111" t="n">
-        <v>819032028659.2537</v>
+        <v>312816252841.2836</v>
       </c>
       <c r="N198" s="111" t="n">
-        <v>827532959631.9259</v>
+        <v>316063048179.5403</v>
       </c>
       <c r="O198" s="111" t="n">
-        <v>838600023518.6388</v>
+        <v>320289937158.0626</v>
       </c>
       <c r="P198" s="111" t="n">
-        <v>839954988299.9076</v>
+        <v>320807444399.2657</v>
       </c>
       <c r="Q198" s="111" t="n">
-        <v>841765154534.6456</v>
+        <v>321498808593.5299</v>
       </c>
       <c r="R198" s="111" t="n">
-        <v>845009549023.8434</v>
+        <v>322737953451.5291</v>
       </c>
       <c r="S198" s="111" t="n">
-        <v>848428953922.4843</v>
+        <v>324043940751.0624</v>
       </c>
       <c r="T198" s="111" t="n">
-        <v>852884303196.3107</v>
+        <v>325745590523.1952</v>
       </c>
       <c r="U198" s="111" t="n">
-        <v>856507316431.5859</v>
+        <v>327129342787.5706</v>
       </c>
       <c r="V198" s="111" t="n">
-        <v>860074849873.6306</v>
+        <v>328491905427.585</v>
       </c>
       <c r="W198" s="111" t="n">
-        <v>863117407743.3831</v>
+        <v>329653961999.9352</v>
       </c>
       <c r="X198" s="111" t="n">
-        <v>866885785272.2072</v>
+        <v>331093233843.5378</v>
       </c>
       <c r="Y198" s="111" t="n">
-        <v>871047855057.224</v>
+        <v>332682870180.8912</v>
       </c>
       <c r="Z198" s="111" t="n">
-        <v>874680357646.8672</v>
+        <v>334070246753.1951</v>
       </c>
       <c r="AA198" s="111" t="n">
-        <v>878520985988.1763</v>
+        <v>335537113645.1419</v>
       </c>
       <c r="AB198" s="111" t="n">
-        <v>882342941728.9548</v>
+        <v>336996848834.3906</v>
       </c>
       <c r="AC198" s="111" t="n">
-        <v>886566298087.0991</v>
+        <v>338609892603.3024</v>
       </c>
       <c r="AD198" s="111" t="n">
-        <v>890756038198.6844</v>
+        <v>340210097181.6636</v>
       </c>
       <c r="AE198" s="111" t="n">
-        <v>895453491234.9784</v>
+        <v>342004214634.087</v>
       </c>
       <c r="AF198" s="111" t="n">
-        <v>899473100116.3948</v>
+        <v>343539440295.8119</v>
       </c>
       <c r="AG198" s="111" t="n">
-        <v>903178215282.7656</v>
+        <v>344954550086.5571</v>
       </c>
       <c r="AH198" s="111" t="n">
-        <v>907073414368.6953</v>
+        <v>346442259406.2107</v>
       </c>
       <c r="AI198" s="111" t="n">
-        <v>910783186090.1909</v>
+        <v>347859147694.1017</v>
       </c>
     </row>
     <row r="199" customFormat="1" s="111">
@@ -64006,100 +64006,100 @@
         </is>
       </c>
       <c r="D199" s="111" t="n">
-        <v>19509081430389</v>
+        <v>51637247816614.44</v>
       </c>
       <c r="E199" s="111" t="n">
-        <v>20795983856282.8</v>
+        <v>55043461467359.11</v>
       </c>
       <c r="F199" s="111" t="n">
-        <v>21616253747142.07</v>
+        <v>57214577507954.92</v>
       </c>
       <c r="G199" s="111" t="n">
-        <v>22337991692076.79</v>
+        <v>59124896107742.76</v>
       </c>
       <c r="H199" s="111" t="n">
-        <v>22654766485957.41</v>
+        <v>59963345554583.01</v>
       </c>
       <c r="I199" s="111" t="n">
-        <v>23047036835059.46</v>
+        <v>61001619001744.92</v>
       </c>
       <c r="J199" s="111" t="n">
-        <v>23539395255835.93</v>
+        <v>62304808692092.34</v>
       </c>
       <c r="K199" s="111" t="n">
-        <v>23814289671324.69</v>
+        <v>63032407841577.95</v>
       </c>
       <c r="L199" s="111" t="n">
-        <v>23944233689981.02</v>
+        <v>63376347740418.7</v>
       </c>
       <c r="M199" s="111" t="n">
-        <v>24094210551879.28</v>
+        <v>63773311196244.71</v>
       </c>
       <c r="N199" s="111" t="n">
-        <v>24156018397149.21</v>
+        <v>63936906137124.05</v>
       </c>
       <c r="O199" s="111" t="n">
-        <v>24116164489217.6</v>
+        <v>63831419565259.12</v>
       </c>
       <c r="P199" s="111" t="n">
-        <v>24187868747150.23</v>
+        <v>64021208641161.31</v>
       </c>
       <c r="Q199" s="111" t="n">
-        <v>24347789351419.53</v>
+        <v>64444491505764.7</v>
       </c>
       <c r="R199" s="111" t="n">
-        <v>24439352612868.86</v>
+        <v>64686844014222.22</v>
       </c>
       <c r="S199" s="111" t="n">
-        <v>24607216726804.43</v>
+        <v>65131152009026.38</v>
       </c>
       <c r="T199" s="111" t="n">
-        <v>24658557525759.81</v>
+        <v>65267042443859.09</v>
       </c>
       <c r="U199" s="111" t="n">
-        <v>24715110347257.83</v>
+        <v>65416728223214.81</v>
       </c>
       <c r="V199" s="111" t="n">
-        <v>24636487028068.41</v>
+        <v>65208625559251.09</v>
       </c>
       <c r="W199" s="111" t="n">
-        <v>24684588073042.83</v>
+        <v>65335940911767.55</v>
       </c>
       <c r="X199" s="111" t="n">
-        <v>24733069632192.22</v>
+        <v>65464263421121.24</v>
       </c>
       <c r="Y199" s="111" t="n">
-        <v>25091818971819.24</v>
+        <v>66413812410419.69</v>
       </c>
       <c r="Z199" s="111" t="n">
-        <v>25142700626733.54</v>
+        <v>66548487568422.57</v>
       </c>
       <c r="AA199" s="111" t="n">
-        <v>25201762748437.16</v>
+        <v>66704815042161.79</v>
       </c>
       <c r="AB199" s="111" t="n">
-        <v>25264176338913.5</v>
+        <v>66870013288427.33</v>
       </c>
       <c r="AC199" s="111" t="n">
-        <v>25282245061809.62</v>
+        <v>66917838150158.81</v>
       </c>
       <c r="AD199" s="111" t="n">
-        <v>25245768601865.09</v>
+        <v>66821291113418.54</v>
       </c>
       <c r="AE199" s="111" t="n">
-        <v>25266666290233.94</v>
+        <v>66876603769575.48</v>
       </c>
       <c r="AF199" s="111" t="n">
-        <v>25294136894975.9</v>
+        <v>66949313826673.45</v>
       </c>
       <c r="AG199" s="111" t="n">
-        <v>25344353748883.83</v>
+        <v>67082229368549.02</v>
       </c>
       <c r="AH199" s="111" t="n">
-        <v>25359392953444.41</v>
+        <v>67122035606255.82</v>
       </c>
       <c r="AI199" s="111" t="n">
-        <v>25251743662706.51</v>
+        <v>66837106091611.58</v>
       </c>
     </row>
     <row r="200" customFormat="1" s="111">
@@ -64212,100 +64212,100 @@
         </is>
       </c>
       <c r="D201" s="111" t="n">
-        <v>2136117881646.736</v>
+        <v>3265995365125.195</v>
       </c>
       <c r="E201" s="111" t="n">
-        <v>1992428707854.238</v>
+        <v>3046303287428.062</v>
       </c>
       <c r="F201" s="111" t="n">
-        <v>2051945569941.838</v>
+        <v>3137300978798.469</v>
       </c>
       <c r="G201" s="111" t="n">
-        <v>2104920171324.458</v>
+        <v>3218295948257.559</v>
       </c>
       <c r="H201" s="111" t="n">
-        <v>2103853765085.919</v>
+        <v>3216665477457.079</v>
       </c>
       <c r="I201" s="111" t="n">
-        <v>2115930182104.369</v>
+        <v>3235129590485.884</v>
       </c>
       <c r="J201" s="111" t="n">
-        <v>2121611767500.992</v>
+        <v>3243816391776.844</v>
       </c>
       <c r="K201" s="111" t="n">
-        <v>2149082260151.298</v>
+        <v>3285817117693.918</v>
       </c>
       <c r="L201" s="111" t="n">
-        <v>2148096713475.08</v>
+        <v>3284310276285.821</v>
       </c>
       <c r="M201" s="111" t="n">
-        <v>2145572723004.786</v>
+        <v>3280451247133.718</v>
       </c>
       <c r="N201" s="111" t="n">
-        <v>2144689280672.939</v>
+        <v>3279100517108.022</v>
       </c>
       <c r="O201" s="111" t="n">
-        <v>2143791424617.488</v>
+        <v>3277727749368.542</v>
       </c>
       <c r="P201" s="111" t="n">
-        <v>2135705154423.18</v>
+        <v>3265364330100.968</v>
       </c>
       <c r="Q201" s="111" t="n">
-        <v>2132062906365.406</v>
+        <v>3259795552564.143</v>
       </c>
       <c r="R201" s="111" t="n">
-        <v>2129260031749.885</v>
+        <v>3255510126379.581</v>
       </c>
       <c r="S201" s="111" t="n">
-        <v>2127994820779.702</v>
+        <v>3253575695138.672</v>
       </c>
       <c r="T201" s="111" t="n">
-        <v>2122438344601.166</v>
+        <v>3245080178294.096</v>
       </c>
       <c r="U201" s="111" t="n">
-        <v>2115362719038.764</v>
+        <v>3234261973694.661</v>
       </c>
       <c r="V201" s="111" t="n">
-        <v>2108511652630.314</v>
+        <v>3223787106493.554</v>
       </c>
       <c r="W201" s="111" t="n">
-        <v>2101857383497.615</v>
+        <v>3213613130453.926</v>
       </c>
       <c r="X201" s="111" t="n">
-        <v>2097646045478.7</v>
+        <v>3207174248700.759</v>
       </c>
       <c r="Y201" s="111" t="n">
-        <v>2102139093303.509</v>
+        <v>3214043847751.068</v>
       </c>
       <c r="Z201" s="111" t="n">
-        <v>2103530355378.666</v>
+        <v>3216171003526.59</v>
       </c>
       <c r="AA201" s="111" t="n">
-        <v>2105082489831.664</v>
+        <v>3218544123462.104</v>
       </c>
       <c r="AB201" s="111" t="n">
-        <v>2105213031548.878</v>
+        <v>3218743713871.901</v>
       </c>
       <c r="AC201" s="111" t="n">
-        <v>2101432935014.994</v>
+        <v>3212964174331.756</v>
       </c>
       <c r="AD201" s="111" t="n">
-        <v>2096370407154.676</v>
+        <v>3205223874664.927</v>
       </c>
       <c r="AE201" s="111" t="n">
-        <v>2090861348796.895</v>
+        <v>3196800856807.482</v>
       </c>
       <c r="AF201" s="111" t="n">
-        <v>2086959358779.961</v>
+        <v>3190834949485.812</v>
       </c>
       <c r="AG201" s="111" t="n">
-        <v>2082853883138.966</v>
+        <v>3184557924921.61</v>
       </c>
       <c r="AH201" s="111" t="n">
-        <v>2079671932349.649</v>
+        <v>3179692914137.676</v>
       </c>
       <c r="AI201" s="111" t="n">
-        <v>2068349852561.188</v>
+        <v>3162382137222.976</v>
       </c>
     </row>
     <row r="202" customFormat="1" s="111">
@@ -64521,100 +64521,100 @@
         </is>
       </c>
       <c r="D204" s="111" t="n">
-        <v>650573769589.5476</v>
+        <v>946905541391.7153</v>
       </c>
       <c r="E204" s="111" t="n">
-        <v>547527557491.3104</v>
+        <v>796922505160.7778</v>
       </c>
       <c r="F204" s="111" t="n">
-        <v>620047032882.4362</v>
+        <v>902474091032.4323</v>
       </c>
       <c r="G204" s="111" t="n">
-        <v>691262382957.4541</v>
+        <v>1006127531687.948</v>
       </c>
       <c r="H204" s="111" t="n">
-        <v>719581128877.7966</v>
+        <v>1047345267002.045</v>
       </c>
       <c r="I204" s="111" t="n">
-        <v>753077705827.9846</v>
+        <v>1096099298926.508</v>
       </c>
       <c r="J204" s="111" t="n">
-        <v>785346557108.3118</v>
+        <v>1143066384782.067</v>
       </c>
       <c r="K204" s="111" t="n">
-        <v>825565941073.2659</v>
+        <v>1201605414985.826</v>
       </c>
       <c r="L204" s="111" t="n">
-        <v>842854575514.9802</v>
+        <v>1226768900698.267</v>
       </c>
       <c r="M204" s="111" t="n">
-        <v>859923756978.5105</v>
+        <v>1251612974145.979</v>
       </c>
       <c r="N204" s="111" t="n">
-        <v>877565947850.7257</v>
+        <v>1277291058753.864</v>
       </c>
       <c r="O204" s="111" t="n">
-        <v>894139195014.431</v>
+        <v>1301413303319.715</v>
       </c>
       <c r="P204" s="111" t="n">
-        <v>896064987171.0143</v>
+        <v>1304216280245.434</v>
       </c>
       <c r="Q204" s="111" t="n">
-        <v>899783046999.8181</v>
+        <v>1309627890149.936</v>
       </c>
       <c r="R204" s="111" t="n">
-        <v>903131990634.3602</v>
+        <v>1314502254032.386</v>
       </c>
       <c r="S204" s="111" t="n">
-        <v>907553400032.4655</v>
+        <v>1320937584283.203</v>
       </c>
       <c r="T204" s="111" t="n">
-        <v>909110558468.0825</v>
+        <v>1323204017423.353</v>
       </c>
       <c r="U204" s="111" t="n">
-        <v>909192168825.9143</v>
+        <v>1323322800724.615</v>
       </c>
       <c r="V204" s="111" t="n">
-        <v>908771066134.1277</v>
+        <v>1322709888721.416</v>
       </c>
       <c r="W204" s="111" t="n">
-        <v>908864569458.6788</v>
+        <v>1322845982152.007</v>
       </c>
       <c r="X204" s="111" t="n">
-        <v>909558534922.3945</v>
+        <v>1323856043998.708</v>
       </c>
       <c r="Y204" s="111" t="n">
-        <v>915058199763.6013</v>
+        <v>1331860767455.698</v>
       </c>
       <c r="Z204" s="111" t="n">
-        <v>918735297609.6683</v>
+        <v>1337212757482.713</v>
       </c>
       <c r="AA204" s="111" t="n">
-        <v>921980726598.7904</v>
+        <v>1341936456527.529</v>
       </c>
       <c r="AB204" s="111" t="n">
-        <v>924341154823.082</v>
+        <v>1345372043189.822</v>
       </c>
       <c r="AC204" s="111" t="n">
-        <v>924350080579.0376</v>
+        <v>1345385034564.775</v>
       </c>
       <c r="AD204" s="111" t="n">
-        <v>923512579310.09</v>
+        <v>1344166057364.096</v>
       </c>
       <c r="AE204" s="111" t="n">
-        <v>922009433759.8369</v>
+        <v>1341978239598.325</v>
       </c>
       <c r="AF204" s="111" t="n">
-        <v>921551976705.2799</v>
+        <v>1341312414076.06</v>
       </c>
       <c r="AG204" s="111" t="n">
-        <v>920998652207.0267</v>
+        <v>1340507054164.433</v>
       </c>
       <c r="AH204" s="111" t="n">
-        <v>921006661263.7219</v>
+        <v>1340518711290.066</v>
       </c>
       <c r="AI204" s="111" t="n">
-        <v>916380490199.2622</v>
+        <v>1333785351875.458</v>
       </c>
     </row>
     <row r="205" customFormat="1" s="111">
@@ -69456,100 +69456,100 @@
       <c r="B2" s="112" t="n"/>
       <c r="C2" s="112" t="n"/>
       <c r="D2" s="112" t="n">
-        <v>739707703845.5515</v>
+        <v>570867804979.5276</v>
       </c>
       <c r="E2" s="112" t="n">
-        <v>726930004720.9409</v>
+        <v>561006643585.5964</v>
       </c>
       <c r="F2" s="112" t="n">
-        <v>749975923846.0006</v>
+        <v>578792281339.8917</v>
       </c>
       <c r="G2" s="112" t="n">
-        <v>779121942949.385</v>
+        <v>601285657930.322</v>
       </c>
       <c r="H2" s="112" t="n">
-        <v>803884368916.4337</v>
+        <v>620396006091.2067</v>
       </c>
       <c r="I2" s="112" t="n">
-        <v>823971256140.3732</v>
+        <v>635898017438.1047</v>
       </c>
       <c r="J2" s="112" t="n">
-        <v>842601853955.6317</v>
+        <v>650276140614.2744</v>
       </c>
       <c r="K2" s="112" t="n">
-        <v>858529565802.0944</v>
+        <v>662568317446.9158</v>
       </c>
       <c r="L2" s="112" t="n">
-        <v>868910205640.5729</v>
+        <v>670579553571.7629</v>
       </c>
       <c r="M2" s="112" t="n">
-        <v>873429402965.0972</v>
+        <v>674067234237.394</v>
       </c>
       <c r="N2" s="112" t="n">
-        <v>874396690338.5886</v>
+        <v>674813736155.4067</v>
       </c>
       <c r="O2" s="112" t="n">
-        <v>873658018800.0996</v>
+        <v>674243668008.7782</v>
       </c>
       <c r="P2" s="112" t="n">
-        <v>868097171195.5247</v>
+        <v>669952096014.4</v>
       </c>
       <c r="Q2" s="112" t="n">
-        <v>862948663270.8385</v>
+        <v>665978746267.4587</v>
       </c>
       <c r="R2" s="112" t="n">
-        <v>857666576360.5261</v>
+        <v>661902307230.0863</v>
       </c>
       <c r="S2" s="112" t="n">
-        <v>852838261399.1753</v>
+        <v>658176065703.323</v>
       </c>
       <c r="T2" s="112" t="n">
-        <v>844256655407.0714</v>
+        <v>651553230020.4672</v>
       </c>
       <c r="U2" s="112" t="n">
-        <v>842123041220.8297</v>
+        <v>649906617931.8802</v>
       </c>
       <c r="V2" s="112" t="n">
-        <v>842390452342.4031</v>
+        <v>650112991880.9497</v>
       </c>
       <c r="W2" s="112" t="n">
-        <v>842021549038.2887</v>
+        <v>649828291561.6553</v>
       </c>
       <c r="X2" s="112" t="n">
-        <v>841899636063.2516</v>
+        <v>649734205489.4186</v>
       </c>
       <c r="Y2" s="112" t="n">
-        <v>845773342262.9811</v>
+        <v>652723729789.1909</v>
       </c>
       <c r="Z2" s="112" t="n">
-        <v>850749075094.1292</v>
+        <v>656563740735.0216</v>
       </c>
       <c r="AA2" s="112" t="n">
-        <v>854942109326.9332</v>
+        <v>659799705746.9321</v>
       </c>
       <c r="AB2" s="112" t="n">
-        <v>860500720770.3463</v>
+        <v>664089551988.8173</v>
       </c>
       <c r="AC2" s="112" t="n">
-        <v>867127521085.7114</v>
+        <v>669203770659.7911</v>
       </c>
       <c r="AD2" s="112" t="n">
-        <v>874603598533.6337</v>
+        <v>674973417103.0616</v>
       </c>
       <c r="AE2" s="112" t="n">
-        <v>881977466539.7744</v>
+        <v>680664183632.8549</v>
       </c>
       <c r="AF2" s="112" t="n">
-        <v>889116411048.7678</v>
+        <v>686173648466.7786</v>
       </c>
       <c r="AG2" s="112" t="n">
-        <v>897613296067.0444</v>
+        <v>692731100923.1069</v>
       </c>
       <c r="AH2" s="112" t="n">
-        <v>906040965568.6056</v>
+        <v>699235136455.5714</v>
       </c>
       <c r="AI2" s="112" t="n">
-        <v>914776128325.7721</v>
+        <v>705976479236.5082</v>
       </c>
     </row>
     <row r="3">
@@ -69698,100 +69698,100 @@
       <c r="B4" s="112" t="n"/>
       <c r="C4" s="112" t="n"/>
       <c r="D4" s="112" t="n">
-        <v>627062793813.9785</v>
+        <v>296819047910.6774</v>
       </c>
       <c r="E4" s="112" t="n">
-        <v>601858818083.5271</v>
+        <v>284888791238.3356</v>
       </c>
       <c r="F4" s="112" t="n">
-        <v>582771609616.1244</v>
+        <v>275853895370.7174</v>
       </c>
       <c r="G4" s="112" t="n">
-        <v>590628227756.8562</v>
+        <v>279572811465.4611</v>
       </c>
       <c r="H4" s="112" t="n">
-        <v>603615616859.4937</v>
+        <v>285720368785.5881</v>
       </c>
       <c r="I4" s="112" t="n">
-        <v>615027236533.364</v>
+        <v>291122038475.0224</v>
       </c>
       <c r="J4" s="112" t="n">
-        <v>620614493179.7568</v>
+        <v>293766756379.7923</v>
       </c>
       <c r="K4" s="112" t="n">
-        <v>623934033266.0986</v>
+        <v>295338054721.2812</v>
       </c>
       <c r="L4" s="112" t="n">
-        <v>624104264560.0844</v>
+        <v>295418633398.7341</v>
       </c>
       <c r="M4" s="112" t="n">
-        <v>624361731107.8594</v>
+        <v>295540504726.986</v>
       </c>
       <c r="N4" s="112" t="n">
-        <v>624962711283.2479</v>
+        <v>295824977614.2818</v>
       </c>
       <c r="O4" s="112" t="n">
-        <v>625786035226.1908</v>
+        <v>296214696524.8553</v>
       </c>
       <c r="P4" s="112" t="n">
-        <v>622391744668.6254</v>
+        <v>294608015181.9854</v>
       </c>
       <c r="Q4" s="112" t="n">
-        <v>623110524230.7313</v>
+        <v>294948248197.5408</v>
       </c>
       <c r="R4" s="112" t="n">
-        <v>624218191932.6965</v>
+        <v>295472560716.0671</v>
       </c>
       <c r="S4" s="112" t="n">
-        <v>624680600574.7657</v>
+        <v>295691441016.7939</v>
       </c>
       <c r="T4" s="112" t="n">
-        <v>625344309169.8734</v>
+        <v>296005606288.97</v>
       </c>
       <c r="U4" s="112" t="n">
-        <v>626351895606.7205</v>
+        <v>296482545520.2926</v>
       </c>
       <c r="V4" s="112" t="n">
-        <v>627883296590.1294</v>
+        <v>297207431427.0138</v>
       </c>
       <c r="W4" s="112" t="n">
-        <v>628766659141.9136</v>
+        <v>297625569505.3164</v>
       </c>
       <c r="X4" s="112" t="n">
-        <v>629292888846.0785</v>
+        <v>297874659391.2313</v>
       </c>
       <c r="Y4" s="112" t="n">
-        <v>630248771803.9078</v>
+        <v>298327124873.5656</v>
       </c>
       <c r="Z4" s="112" t="n">
-        <v>629674486732.7041</v>
+        <v>298055288065.9195</v>
       </c>
       <c r="AA4" s="112" t="n">
-        <v>629037789690.1195</v>
+        <v>297753908663.6461</v>
       </c>
       <c r="AB4" s="112" t="n">
-        <v>628156842295.9382</v>
+        <v>297336913795.8597</v>
       </c>
       <c r="AC4" s="112" t="n">
-        <v>626745927524.7627</v>
+        <v>296669059821.4336</v>
       </c>
       <c r="AD4" s="112" t="n">
-        <v>624842950513.9038</v>
+        <v>295768289069.0764</v>
       </c>
       <c r="AE4" s="112" t="n">
-        <v>623022426207.4152</v>
+        <v>294906547156.335</v>
       </c>
       <c r="AF4" s="112" t="n">
-        <v>619361650324.4254</v>
+        <v>293173725463.0011</v>
       </c>
       <c r="AG4" s="112" t="n">
-        <v>616527431531.0828</v>
+        <v>291832153084.4299</v>
       </c>
       <c r="AH4" s="112" t="n">
-        <v>613066543525.0546</v>
+        <v>290193947958.8688</v>
       </c>
       <c r="AI4" s="112" t="n">
-        <v>608392395574.2727</v>
+        <v>287981448416.1894</v>
       </c>
     </row>
     <row r="5" customFormat="1" s="111">
@@ -69803,100 +69803,100 @@
       <c r="B5" s="112" t="n"/>
       <c r="C5" s="112" t="n"/>
       <c r="D5" s="112" t="n">
-        <v>5571753452184.383</v>
+        <v>1707247170447.038</v>
       </c>
       <c r="E5" s="112" t="n">
-        <v>5530571006694.793</v>
+        <v>1694628411534.325</v>
       </c>
       <c r="F5" s="112" t="n">
-        <v>5769847859940.989</v>
+        <v>1767945498186.443</v>
       </c>
       <c r="G5" s="112" t="n">
-        <v>6007883009457.421</v>
+        <v>1840882113018.089</v>
       </c>
       <c r="H5" s="112" t="n">
-        <v>6219248551437.603</v>
+        <v>1905646863750.947</v>
       </c>
       <c r="I5" s="112" t="n">
-        <v>6372811410374.825</v>
+        <v>1952700230102.531</v>
       </c>
       <c r="J5" s="112" t="n">
-        <v>6477097715702.539</v>
+        <v>1984654712872.639</v>
       </c>
       <c r="K5" s="112" t="n">
-        <v>6560356735710.777</v>
+        <v>2010166201768.03</v>
       </c>
       <c r="L5" s="112" t="n">
-        <v>6613001221253.155</v>
+        <v>2026297057117.817</v>
       </c>
       <c r="M5" s="112" t="n">
-        <v>6679792954945.708</v>
+        <v>2046762786503.448</v>
       </c>
       <c r="N5" s="112" t="n">
-        <v>6742892406135.306</v>
+        <v>2066097159501.947</v>
       </c>
       <c r="O5" s="112" t="n">
-        <v>6823180718691.204</v>
+        <v>2090698390623.773</v>
       </c>
       <c r="P5" s="112" t="n">
-        <v>6852574779169.307</v>
+        <v>2099705057377.759</v>
       </c>
       <c r="Q5" s="112" t="n">
-        <v>6872410010538.842</v>
+        <v>2105782792676.244</v>
       </c>
       <c r="R5" s="112" t="n">
-        <v>6890790112354.462</v>
+        <v>2111414660110.174</v>
       </c>
       <c r="S5" s="112" t="n">
-        <v>6912747570028.886</v>
+        <v>2118142669130.418</v>
       </c>
       <c r="T5" s="112" t="n">
-        <v>6939629396259.334</v>
+        <v>2126379559395.258</v>
       </c>
       <c r="U5" s="112" t="n">
-        <v>6946973102540.514</v>
+        <v>2128629752602.249</v>
       </c>
       <c r="V5" s="112" t="n">
-        <v>6949197843044.597</v>
+        <v>2129311437813.766</v>
       </c>
       <c r="W5" s="112" t="n">
-        <v>6947595364910.504</v>
+        <v>2128820420706.924</v>
       </c>
       <c r="X5" s="112" t="n">
-        <v>6952871296944.473</v>
+        <v>2130437024907.695</v>
       </c>
       <c r="Y5" s="112" t="n">
-        <v>6959249194295.122</v>
+        <v>2132391283526.412</v>
       </c>
       <c r="Z5" s="112" t="n">
-        <v>6951719694968.944</v>
+        <v>2130084161265.922</v>
       </c>
       <c r="AA5" s="112" t="n">
-        <v>6963240582606.959</v>
+        <v>2133614289257.017</v>
       </c>
       <c r="AB5" s="112" t="n">
-        <v>6947070814461.848</v>
+        <v>2128659692620.71</v>
       </c>
       <c r="AC5" s="112" t="n">
-        <v>6937611271791.944</v>
+        <v>2125761183633.277</v>
       </c>
       <c r="AD5" s="112" t="n">
-        <v>6922120606092.456</v>
+        <v>2121014671532.419</v>
       </c>
       <c r="AE5" s="112" t="n">
-        <v>6915175711930.114</v>
+        <v>2118886678790.195</v>
       </c>
       <c r="AF5" s="112" t="n">
-        <v>6877690757971.646</v>
+        <v>2107400872368.726</v>
       </c>
       <c r="AG5" s="112" t="n">
-        <v>6826778097162.062</v>
+        <v>2091800667360.909</v>
       </c>
       <c r="AH5" s="112" t="n">
-        <v>6781242281826.353</v>
+        <v>2077847987553.189</v>
       </c>
       <c r="AI5" s="112" t="n">
-        <v>6679242372477.188</v>
+        <v>2046594081917.083</v>
       </c>
     </row>
     <row r="6">
@@ -70045,100 +70045,100 @@
       <c r="B7" s="112" t="n"/>
       <c r="C7" s="112" t="n"/>
       <c r="D7" s="112" t="n">
-        <v>1341954485.152112</v>
+        <v>701218363.1109853</v>
       </c>
       <c r="E7" s="112" t="n">
-        <v>1323529480.779314</v>
+        <v>691590651.0316583</v>
       </c>
       <c r="F7" s="112" t="n">
-        <v>1349059731.207766</v>
+        <v>704931103.7916664</v>
       </c>
       <c r="G7" s="112" t="n">
-        <v>1382106470.469652</v>
+        <v>722199186.0312432</v>
       </c>
       <c r="H7" s="112" t="n">
-        <v>1403297715.363826</v>
+        <v>733272355.964642</v>
       </c>
       <c r="I7" s="112" t="n">
-        <v>1421799905.565753</v>
+        <v>742940400.3513285</v>
       </c>
       <c r="J7" s="112" t="n">
-        <v>1438782447.8845</v>
+        <v>751814375.3318324</v>
       </c>
       <c r="K7" s="112" t="n">
-        <v>1456618184.099429</v>
+        <v>761134174.0969107</v>
       </c>
       <c r="L7" s="112" t="n">
-        <v>1464551310.419132</v>
+        <v>765279511.3000751</v>
       </c>
       <c r="M7" s="112" t="n">
-        <v>1477974590.068836</v>
+        <v>772293646.4944444</v>
       </c>
       <c r="N7" s="112" t="n">
-        <v>1490533471.427808</v>
+        <v>778856103.2144613</v>
       </c>
       <c r="O7" s="112" t="n">
-        <v>1503130530.723769</v>
+        <v>785438509.2477957</v>
       </c>
       <c r="P7" s="112" t="n">
-        <v>1511493988.789745</v>
+        <v>789808709.9065065</v>
       </c>
       <c r="Q7" s="112" t="n">
-        <v>1519875705.869065</v>
+        <v>794188451.5411515</v>
       </c>
       <c r="R7" s="112" t="n">
-        <v>1527578934.611683</v>
+        <v>798213659.1836865</v>
       </c>
       <c r="S7" s="112" t="n">
-        <v>1537614337.331218</v>
+        <v>803457509.6614873</v>
       </c>
       <c r="T7" s="112" t="n">
-        <v>1546570383.375672</v>
+        <v>808137358.3573443</v>
       </c>
       <c r="U7" s="112" t="n">
-        <v>1553592633.916133</v>
+        <v>811806730.9655957</v>
       </c>
       <c r="V7" s="112" t="n">
-        <v>1563794857.621206</v>
+        <v>817137751.2689799</v>
       </c>
       <c r="W7" s="112" t="n">
-        <v>1571194322.778218</v>
+        <v>821004231.7664231</v>
       </c>
       <c r="X7" s="112" t="n">
-        <v>1578724505.871659</v>
+        <v>824939016.9779427</v>
       </c>
       <c r="Y7" s="112" t="n">
-        <v>1588773187.873626</v>
+        <v>830189806.3473325</v>
       </c>
       <c r="Z7" s="112" t="n">
-        <v>1598888681.265322</v>
+        <v>835475507.0150278</v>
       </c>
       <c r="AA7" s="112" t="n">
-        <v>1608500806.857374</v>
+        <v>840498180.323439</v>
       </c>
       <c r="AB7" s="112" t="n">
-        <v>1617994248.862701</v>
+        <v>845458837.2882758</v>
       </c>
       <c r="AC7" s="112" t="n">
-        <v>1628026746.739205</v>
+        <v>850701169.8835421</v>
       </c>
       <c r="AD7" s="112" t="n">
-        <v>1638290387.12552</v>
+        <v>856064282.5605239</v>
       </c>
       <c r="AE7" s="112" t="n">
-        <v>1647670540.252609</v>
+        <v>860965742.1064949</v>
       </c>
       <c r="AF7" s="112" t="n">
-        <v>1657370641.090765</v>
+        <v>866034385.5716809</v>
       </c>
       <c r="AG7" s="112" t="n">
-        <v>1666267760.319431</v>
+        <v>870683442.9361129</v>
       </c>
       <c r="AH7" s="112" t="n">
-        <v>1674642422.779959</v>
+        <v>875059498.2846016</v>
       </c>
       <c r="AI7" s="112" t="n">
-        <v>1680411856.018585</v>
+        <v>878074229.8395313</v>
       </c>
     </row>
     <row r="8" customFormat="1" s="111">
@@ -70150,100 +70150,100 @@
       <c r="B8" s="112" t="n"/>
       <c r="C8" s="112" t="n"/>
       <c r="D8" s="112" t="n">
-        <v>4374170623048.604</v>
+        <v>1062334507525.656</v>
       </c>
       <c r="E8" s="112" t="n">
-        <v>4353155739224.277</v>
+        <v>1057230720274.974</v>
       </c>
       <c r="F8" s="112" t="n">
-        <v>4471397365500.902</v>
+        <v>1085947514987.492</v>
       </c>
       <c r="G8" s="112" t="n">
-        <v>4596440568380.841</v>
+        <v>1116316177026.173</v>
       </c>
       <c r="H8" s="112" t="n">
-        <v>4667436944018.727</v>
+        <v>1133558737101.896</v>
       </c>
       <c r="I8" s="112" t="n">
-        <v>4745083001234.857</v>
+        <v>1152416274464.377</v>
       </c>
       <c r="J8" s="112" t="n">
-        <v>4824531514262.975</v>
+        <v>1171711565900.116</v>
       </c>
       <c r="K8" s="112" t="n">
-        <v>4899074590155.671</v>
+        <v>1189815496597.434</v>
       </c>
       <c r="L8" s="112" t="n">
-        <v>4954177932440.777</v>
+        <v>1203198189462.915</v>
       </c>
       <c r="M8" s="112" t="n">
-        <v>5010633789893.538</v>
+        <v>1216909361406.687</v>
       </c>
       <c r="N8" s="112" t="n">
-        <v>5069367067020.754</v>
+        <v>1231173639691.474</v>
       </c>
       <c r="O8" s="112" t="n">
-        <v>5131135159361.511</v>
+        <v>1246174969454.849</v>
       </c>
       <c r="P8" s="112" t="n">
-        <v>5180444552763.74</v>
+        <v>1258150512859.655</v>
       </c>
       <c r="Q8" s="112" t="n">
-        <v>5230647128459.59</v>
+        <v>1270342979300.573</v>
       </c>
       <c r="R8" s="112" t="n">
-        <v>5274846637534.092</v>
+        <v>1281077508826.724</v>
       </c>
       <c r="S8" s="112" t="n">
-        <v>5324137314660.087</v>
+        <v>1293048506696.431</v>
       </c>
       <c r="T8" s="112" t="n">
-        <v>5370758331462.786</v>
+        <v>1304371136560.129</v>
       </c>
       <c r="U8" s="112" t="n">
-        <v>5413069013712.844</v>
+        <v>1314646935486.295</v>
       </c>
       <c r="V8" s="112" t="n">
-        <v>5453977765053.169</v>
+        <v>1324582253962.355</v>
       </c>
       <c r="W8" s="112" t="n">
-        <v>5495027485067.864</v>
+        <v>1334551808845.763</v>
       </c>
       <c r="X8" s="112" t="n">
-        <v>5535727118669.718</v>
+        <v>1344436339867.73</v>
       </c>
       <c r="Y8" s="112" t="n">
-        <v>5577968083643.091</v>
+        <v>1354695206882.644</v>
       </c>
       <c r="Z8" s="112" t="n">
-        <v>5621139169134.678</v>
+        <v>1365179967948.752</v>
       </c>
       <c r="AA8" s="112" t="n">
-        <v>5663819182493.267</v>
+        <v>1375545464606.238</v>
       </c>
       <c r="AB8" s="112" t="n">
-        <v>5709153242232.5</v>
+        <v>1386555537183.986</v>
       </c>
       <c r="AC8" s="112" t="n">
-        <v>5756423993371.466</v>
+        <v>1398035965008.857</v>
       </c>
       <c r="AD8" s="112" t="n">
-        <v>5805730778767.989</v>
+        <v>1410010875019.428</v>
       </c>
       <c r="AE8" s="112" t="n">
-        <v>5855698224851.478</v>
+        <v>1422146236623.229</v>
       </c>
       <c r="AF8" s="112" t="n">
-        <v>5906242057241.509</v>
+        <v>1434421582492.819</v>
       </c>
       <c r="AG8" s="112" t="n">
-        <v>5957571888004.435</v>
+        <v>1446887820137.409</v>
       </c>
       <c r="AH8" s="112" t="n">
-        <v>6010058650552.943</v>
+        <v>1459635036432.489</v>
       </c>
       <c r="AI8" s="112" t="n">
-        <v>6063462510636.932</v>
+        <v>1472604983947.42</v>
       </c>
     </row>
     <row r="9">
@@ -74571,100 +74571,100 @@
       <c r="B2" s="112" t="n"/>
       <c r="C2" s="112" t="n"/>
       <c r="D2" s="112" t="n">
-        <v>2655570478455.614</v>
+        <v>514224514435.073</v>
       </c>
       <c r="E2" s="112" t="n">
-        <v>2421834170936.816</v>
+        <v>468963829314.94</v>
       </c>
       <c r="F2" s="112" t="n">
-        <v>2479705098393.075</v>
+        <v>480169952373.0667</v>
       </c>
       <c r="G2" s="112" t="n">
-        <v>2558132505434.328</v>
+        <v>495356630953.5743</v>
       </c>
       <c r="H2" s="112" t="n">
-        <v>2574187444867.276</v>
+        <v>498465508500.2902</v>
       </c>
       <c r="I2" s="112" t="n">
-        <v>2580487690317.56</v>
+        <v>499685487666.2652</v>
       </c>
       <c r="J2" s="112" t="n">
-        <v>2581443981495.333</v>
+        <v>499870663834.8279</v>
       </c>
       <c r="K2" s="112" t="n">
-        <v>2570660691698.287</v>
+        <v>497782588219.8575</v>
       </c>
       <c r="L2" s="112" t="n">
-        <v>2526031129305.044</v>
+        <v>489140522329.5701</v>
       </c>
       <c r="M2" s="112" t="n">
-        <v>2473948871208.856</v>
+        <v>479055316872.7865</v>
       </c>
       <c r="N2" s="112" t="n">
-        <v>2413441922838.322</v>
+        <v>467338754876.7062</v>
       </c>
       <c r="O2" s="112" t="n">
-        <v>2344671475371.821</v>
+        <v>454022049391.8226</v>
       </c>
       <c r="P2" s="112" t="n">
-        <v>2250203263520.658</v>
+        <v>435729230292.1899</v>
       </c>
       <c r="Q2" s="112" t="n">
-        <v>2154506829797.218</v>
+        <v>417198578379.9791</v>
       </c>
       <c r="R2" s="112" t="n">
-        <v>2058894419426.713</v>
+        <v>398684196744.9893</v>
       </c>
       <c r="S2" s="112" t="n">
-        <v>1967235938457.532</v>
+        <v>380935453771.4479</v>
       </c>
       <c r="T2" s="112" t="n">
-        <v>1852016311587.552</v>
+        <v>358624331863.2606</v>
       </c>
       <c r="U2" s="112" t="n">
-        <v>1823228790770.147</v>
+        <v>353049917990.9056</v>
       </c>
       <c r="V2" s="112" t="n">
-        <v>1798068753881.476</v>
+        <v>348177929897.4961</v>
       </c>
       <c r="W2" s="112" t="n">
-        <v>1774328626943.777</v>
+        <v>343580893085.1782</v>
       </c>
       <c r="X2" s="112" t="n">
-        <v>1750721767067.911</v>
+        <v>339009662099.0348</v>
       </c>
       <c r="Y2" s="112" t="n">
-        <v>1736710606275.16</v>
+        <v>336296541730.4448</v>
       </c>
       <c r="Z2" s="112" t="n">
-        <v>1726430358456.304</v>
+        <v>334305875135.1459</v>
       </c>
       <c r="AA2" s="112" t="n">
-        <v>1713294744218.93</v>
+        <v>331762295551.0905</v>
       </c>
       <c r="AB2" s="112" t="n">
-        <v>1703986083091.125</v>
+        <v>329959766946.6641</v>
       </c>
       <c r="AC2" s="112" t="n">
-        <v>1698166242259.38</v>
+        <v>328832813303.3424</v>
       </c>
       <c r="AD2" s="112" t="n">
-        <v>1693865363553.82</v>
+        <v>327999991398.6128</v>
       </c>
       <c r="AE2" s="112" t="n">
-        <v>1689360246604.822</v>
+        <v>327127620812.1922</v>
       </c>
       <c r="AF2" s="112" t="n">
-        <v>1684957852754.22</v>
+        <v>326275141520.6262</v>
       </c>
       <c r="AG2" s="112" t="n">
-        <v>1681573575330.443</v>
+        <v>325619810235.2867</v>
       </c>
       <c r="AH2" s="112" t="n">
-        <v>1678373942205.402</v>
+        <v>325000233461.3156</v>
       </c>
       <c r="AI2" s="112" t="n">
-        <v>1676316970204.522</v>
+        <v>324601921521.5873</v>
       </c>
     </row>
     <row r="3">
@@ -74813,100 +74813,100 @@
       <c r="B4" s="112" t="n"/>
       <c r="C4" s="112" t="n"/>
       <c r="D4" s="112" t="n">
-        <v>1452482915222.557</v>
+        <v>172508819358.8635</v>
       </c>
       <c r="E4" s="112" t="n">
-        <v>1420620826116.885</v>
+        <v>168724615554.2465</v>
       </c>
       <c r="F4" s="112" t="n">
-        <v>1270535249099.201</v>
+        <v>150899217800.6715</v>
       </c>
       <c r="G4" s="112" t="n">
-        <v>1207096904398.392</v>
+        <v>143364758130.4588</v>
       </c>
       <c r="H4" s="112" t="n">
-        <v>1233239219689.185</v>
+        <v>146469634545.0849</v>
       </c>
       <c r="I4" s="112" t="n">
-        <v>1210406194525.75</v>
+        <v>143757796648.7115</v>
       </c>
       <c r="J4" s="112" t="n">
-        <v>1193289291225.187</v>
+        <v>141724852406.4672</v>
       </c>
       <c r="K4" s="112" t="n">
-        <v>1182050800758.669</v>
+        <v>140390076829.1188</v>
       </c>
       <c r="L4" s="112" t="n">
-        <v>1166811213912.832</v>
+        <v>138580098132.1305</v>
       </c>
       <c r="M4" s="112" t="n">
-        <v>1152806948119.111</v>
+        <v>136916836325.2318</v>
       </c>
       <c r="N4" s="112" t="n">
-        <v>1138460766376.19</v>
+        <v>135212965767.5532</v>
       </c>
       <c r="O4" s="112" t="n">
-        <v>1127966903373.857</v>
+        <v>133966628273.2711</v>
       </c>
       <c r="P4" s="112" t="n">
-        <v>1123559055022.013</v>
+        <v>133443115943.37</v>
       </c>
       <c r="Q4" s="112" t="n">
-        <v>1124443537817.867</v>
+        <v>133548164396.0967</v>
       </c>
       <c r="R4" s="112" t="n">
-        <v>1129678543309.196</v>
+        <v>134169916712.2043</v>
       </c>
       <c r="S4" s="112" t="n">
-        <v>1130146581474.493</v>
+        <v>134225504774.8687</v>
       </c>
       <c r="T4" s="112" t="n">
-        <v>1126998392381.363</v>
+        <v>133851599940.6827</v>
       </c>
       <c r="U4" s="112" t="n">
-        <v>1128293065978.715</v>
+        <v>134005366027.2876</v>
       </c>
       <c r="V4" s="112" t="n">
-        <v>1127520996703.733</v>
+        <v>133913668729.0305</v>
       </c>
       <c r="W4" s="112" t="n">
-        <v>1127497424408.042</v>
+        <v>133910869089.2849</v>
       </c>
       <c r="X4" s="112" t="n">
-        <v>1125085650882.152</v>
+        <v>133624427025.7317</v>
       </c>
       <c r="Y4" s="112" t="n">
-        <v>1122356823541.122</v>
+        <v>133300329042.9591</v>
       </c>
       <c r="Z4" s="112" t="n">
-        <v>1114846152442.207</v>
+        <v>132408299959.3205</v>
       </c>
       <c r="AA4" s="112" t="n">
-        <v>1112631626505.305</v>
+        <v>132145284642.0244</v>
       </c>
       <c r="AB4" s="112" t="n">
-        <v>1103578288737.387</v>
+        <v>131070035774.5626</v>
       </c>
       <c r="AC4" s="112" t="n">
-        <v>1098344639685.375</v>
+        <v>130448444560.3466</v>
       </c>
       <c r="AD4" s="112" t="n">
-        <v>1092345890037.622</v>
+        <v>129735983705.5456</v>
       </c>
       <c r="AE4" s="112" t="n">
-        <v>1084926650940.782</v>
+        <v>128854813838.6073</v>
       </c>
       <c r="AF4" s="112" t="n">
-        <v>1074339129244.663</v>
+        <v>127597352667.4003</v>
       </c>
       <c r="AG4" s="112" t="n">
-        <v>1068010300856.283</v>
+        <v>126845688946.0841</v>
       </c>
       <c r="AH4" s="112" t="n">
-        <v>1056571234973.385</v>
+        <v>125487091382.3224</v>
       </c>
       <c r="AI4" s="112" t="n">
-        <v>1046443908070.866</v>
+        <v>124284286730.4363</v>
       </c>
     </row>
     <row r="5" customFormat="1" s="111">
@@ -74918,100 +74918,100 @@
       <c r="B5" s="112" t="n"/>
       <c r="C5" s="112" t="n"/>
       <c r="D5" s="112" t="n">
-        <v>433873581253.4246</v>
+        <v>33357020580.76357</v>
       </c>
       <c r="E5" s="112" t="n">
-        <v>398181139432.3587</v>
+        <v>30612918225.04171</v>
       </c>
       <c r="F5" s="112" t="n">
-        <v>420233188453.0605</v>
+        <v>32308321413.46932</v>
       </c>
       <c r="G5" s="112" t="n">
-        <v>443039298954.5347</v>
+        <v>34061698273.07693</v>
       </c>
       <c r="H5" s="112" t="n">
-        <v>455707252773.5293</v>
+        <v>35035634494.39653</v>
       </c>
       <c r="I5" s="112" t="n">
-        <v>467994438817.0309</v>
+        <v>35980296569.80729</v>
       </c>
       <c r="J5" s="112" t="n">
-        <v>480187535488.3752</v>
+        <v>36917724876.53726</v>
       </c>
       <c r="K5" s="112" t="n">
-        <v>491758030402.1746</v>
+        <v>37807286383.95661</v>
       </c>
       <c r="L5" s="112" t="n">
-        <v>498385384082.1114</v>
+        <v>38316809854.9617</v>
       </c>
       <c r="M5" s="112" t="n">
-        <v>505545367716.1434</v>
+        <v>38867282923.05762</v>
       </c>
       <c r="N5" s="112" t="n">
-        <v>512300766074.1706</v>
+        <v>39386650710.81039</v>
       </c>
       <c r="O5" s="112" t="n">
-        <v>519666101250.9206</v>
+        <v>39952911593.45116</v>
       </c>
       <c r="P5" s="112" t="n">
-        <v>520787348384.8124</v>
+        <v>40039115191.31323</v>
       </c>
       <c r="Q5" s="112" t="n">
-        <v>522094442275.0544</v>
+        <v>40139607038.89666</v>
       </c>
       <c r="R5" s="112" t="n">
-        <v>523432983852.3716</v>
+        <v>40242516644.07195</v>
       </c>
       <c r="S5" s="112" t="n">
-        <v>524713196458.7502</v>
+        <v>40340941807.76907</v>
       </c>
       <c r="T5" s="112" t="n">
-        <v>526223739223.7055</v>
+        <v>40457075189.1867</v>
       </c>
       <c r="U5" s="112" t="n">
-        <v>527488740243.3173</v>
+        <v>40554330857.35616</v>
       </c>
       <c r="V5" s="112" t="n">
-        <v>528683791381.2535</v>
+        <v>40646208646.4763</v>
       </c>
       <c r="W5" s="112" t="n">
-        <v>529895898230.3306</v>
+        <v>40739397710.88982</v>
       </c>
       <c r="X5" s="112" t="n">
-        <v>531260638082.4838</v>
+        <v>40844321488.92706</v>
       </c>
       <c r="Y5" s="112" t="n">
-        <v>532813205417.1664</v>
+        <v>40963685798.65622</v>
       </c>
       <c r="Z5" s="112" t="n">
-        <v>534204933883.1729</v>
+        <v>41070684512.31216</v>
       </c>
       <c r="AA5" s="112" t="n">
-        <v>536474641182.0617</v>
+        <v>41245183897.2773</v>
       </c>
       <c r="AB5" s="112" t="n">
-        <v>537591975649.9537</v>
+        <v>41331086681.98569</v>
       </c>
       <c r="AC5" s="112" t="n">
-        <v>539128502029.7649</v>
+        <v>41449217732.80048</v>
       </c>
       <c r="AD5" s="112" t="n">
-        <v>540641240180.8796</v>
+        <v>41565519899.65347</v>
       </c>
       <c r="AE5" s="112" t="n">
-        <v>542855623748.5505</v>
+        <v>41735765891.64753</v>
       </c>
       <c r="AF5" s="112" t="n">
-        <v>544332816158.4259</v>
+        <v>41849335234.76266</v>
       </c>
       <c r="AG5" s="112" t="n">
-        <v>545664625218.1874</v>
+        <v>41951727231.2695</v>
       </c>
       <c r="AH5" s="112" t="n">
-        <v>547908680649.4622</v>
+        <v>42124254452.19214</v>
       </c>
       <c r="AI5" s="112" t="n">
-        <v>548233958820.1163</v>
+        <v>42149262452.45258</v>
       </c>
     </row>
     <row r="6">
